--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.07220670346859</v>
+        <v>21.28480257740378</v>
       </c>
       <c r="C2">
-        <v>11.78651229725639</v>
+        <v>11.75297402465956</v>
       </c>
       <c r="D2">
-        <v>7.859605531446015</v>
+        <v>2.490769759274634</v>
       </c>
       <c r="E2">
-        <v>7.666528544554088</v>
+        <v>6.633689087913402</v>
       </c>
       <c r="F2">
-        <v>63.60044944525171</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>42.18456201514772</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.584419872953179</v>
+        <v>6.338395240668879</v>
       </c>
       <c r="K2">
-        <v>15.78544356053761</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.325902077997219</v>
       </c>
       <c r="M2">
-        <v>14.37187020587441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.0551684143236</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>32.3884362047024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.71561786130695</v>
+        <v>20.03992748392879</v>
       </c>
       <c r="C3">
-        <v>10.90011303468988</v>
+        <v>10.98885626647346</v>
       </c>
       <c r="D3">
-        <v>7.504020140030941</v>
+        <v>2.407536151750756</v>
       </c>
       <c r="E3">
-        <v>7.336507570182885</v>
+        <v>6.643576800170489</v>
       </c>
       <c r="F3">
-        <v>59.86556579191215</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>41.12748683079506</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.219434055152307</v>
+        <v>6.380142169622379</v>
       </c>
       <c r="K3">
-        <v>14.62003600966627</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.278264562389967</v>
       </c>
       <c r="M3">
-        <v>13.34252626685354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.6109809107276</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.62985989679339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.84674683955408</v>
+        <v>19.25151260966144</v>
       </c>
       <c r="C4">
-        <v>10.33373179117065</v>
+        <v>10.49625776591713</v>
       </c>
       <c r="D4">
-        <v>7.281939422116272</v>
+        <v>2.356243332653262</v>
       </c>
       <c r="E4">
-        <v>7.13464962563901</v>
+        <v>6.650292601929476</v>
       </c>
       <c r="F4">
-        <v>57.51010649499842</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>40.50024006944876</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.995366813765777</v>
+        <v>6.406383949244554</v>
       </c>
       <c r="K4">
-        <v>13.87325347325712</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.251825696521315</v>
       </c>
       <c r="M4">
-        <v>12.6828103893452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.33938773731826</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>31.18208520732745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.48338639127188</v>
+        <v>18.92444702557149</v>
       </c>
       <c r="C5">
-        <v>10.09713836500316</v>
+        <v>10.28957553604035</v>
       </c>
       <c r="D5">
-        <v>7.190486231240552</v>
+        <v>2.33527977970228</v>
       </c>
       <c r="E5">
-        <v>7.052632989372492</v>
+        <v>6.65318592177528</v>
       </c>
       <c r="F5">
-        <v>56.5347446745986</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>40.25014368542266</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.904090074960028</v>
+        <v>6.417237407912191</v>
       </c>
       <c r="K5">
-        <v>13.56082758867057</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.241748952111091</v>
       </c>
       <c r="M5">
-        <v>12.40679747031994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.2291275644377</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>31.00412194139317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42248280812096</v>
+        <v>18.86979832675322</v>
       </c>
       <c r="C6">
-        <v>10.05749643762216</v>
+        <v>10.25489577272027</v>
       </c>
       <c r="D6">
-        <v>7.175242914464926</v>
+        <v>2.331794721250404</v>
       </c>
       <c r="E6">
-        <v>7.039030512529395</v>
+        <v>6.6536756616767</v>
       </c>
       <c r="F6">
-        <v>56.37185966606471</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>40.2089491275981</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.888936588309035</v>
+        <v>6.41904944748352</v>
       </c>
       <c r="K6">
-        <v>13.50845287248476</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.240117551419643</v>
       </c>
       <c r="M6">
-        <v>12.36052676319187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.21084811769632</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.9748430658672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.84188435689948</v>
+        <v>19.24712467956034</v>
       </c>
       <c r="C7">
-        <v>10.3305647280992</v>
+        <v>10.49349450697295</v>
       </c>
       <c r="D7">
-        <v>7.280709915138929</v>
+        <v>2.35596087628597</v>
       </c>
       <c r="E7">
-        <v>7.133542465706423</v>
+        <v>6.650330995157169</v>
       </c>
       <c r="F7">
-        <v>57.4970147893357</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>40.49684482578997</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.994135649772208</v>
+        <v>6.406529667686274</v>
       </c>
       <c r="K7">
-        <v>13.86907313137435</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.25168698728099</v>
       </c>
       <c r="M7">
-        <v>12.67911728878485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.33789886411362</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>31.17966690014897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.61174521292579</v>
+        <v>20.86070035418381</v>
       </c>
       <c r="C8">
-        <v>11.48533278979951</v>
+        <v>11.4943323886751</v>
       </c>
       <c r="D8">
-        <v>7.737766251969432</v>
+        <v>2.462100259935688</v>
       </c>
       <c r="E8">
-        <v>7.552598609164766</v>
+        <v>6.636961029211387</v>
       </c>
       <c r="F8">
-        <v>62.32559900680072</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>41.8155739643558</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.458574279311275</v>
+        <v>6.352667292014667</v>
       </c>
       <c r="K8">
-        <v>15.38992854722333</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.308887594524458</v>
       </c>
       <c r="M8">
-        <v>14.02256743164238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.90184958608166</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>32.12313428558421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.8109243261248</v>
+        <v>23.82605174693361</v>
       </c>
       <c r="C9">
-        <v>13.58566105676132</v>
+        <v>13.27417019307131</v>
       </c>
       <c r="D9">
-        <v>8.605775926982519</v>
+        <v>2.669546819857862</v>
       </c>
       <c r="E9">
-        <v>8.379555180686983</v>
+        <v>6.616144172209082</v>
       </c>
       <c r="F9">
-        <v>71.30618324077832</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>44.57387480366305</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.36960116391252</v>
+        <v>6.251552076292501</v>
       </c>
       <c r="K9">
-        <v>18.13759687961927</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.443796267261153</v>
       </c>
       <c r="M9">
-        <v>16.44806123557758</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.01188889412989</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>34.11709824569058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.01805167016179</v>
+        <v>25.88241098249758</v>
       </c>
       <c r="C10">
-        <v>15.04708283748642</v>
+        <v>14.47559733226596</v>
       </c>
       <c r="D10">
-        <v>9.229977991035808</v>
+        <v>2.822893762681332</v>
       </c>
       <c r="E10">
-        <v>8.990901860749283</v>
+        <v>6.604607406830771</v>
       </c>
       <c r="F10">
-        <v>77.63250721321934</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>46.70626864444803</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.04090919885123</v>
+        <v>6.179517332608367</v>
       </c>
       <c r="K10">
-        <v>20.03400365583851</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.557421402282447</v>
       </c>
       <c r="M10">
-        <v>18.11999706890278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.82471944928932</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.67233716092138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.99713047088976</v>
+        <v>26.86616222363737</v>
       </c>
       <c r="C11">
-        <v>15.69918420112877</v>
+        <v>15.00050537673766</v>
       </c>
       <c r="D11">
-        <v>9.512362668019165</v>
+        <v>2.893241990758196</v>
       </c>
       <c r="E11">
-        <v>9.270609352612425</v>
+        <v>6.600301168476473</v>
       </c>
       <c r="F11">
-        <v>80.46266251252395</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>47.70023199247466</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.34774179487273</v>
+        <v>6.147113713549921</v>
       </c>
       <c r="K11">
-        <v>20.87578053725764</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.612421311863336</v>
       </c>
       <c r="M11">
-        <v>18.86140825549992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.19322305118085</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.40049263871536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.36491812868298</v>
+        <v>27.2333055990099</v>
       </c>
       <c r="C12">
-        <v>15.94480029769352</v>
+        <v>15.19630099427809</v>
       </c>
       <c r="D12">
-        <v>9.619226208477501</v>
+        <v>2.92000480514925</v>
       </c>
       <c r="E12">
-        <v>9.376871668961082</v>
+        <v>6.598818700488163</v>
       </c>
       <c r="F12">
-        <v>81.52884560856974</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>48.08019615772059</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.46427370456626</v>
+        <v>6.134884478093282</v>
       </c>
       <c r="K12">
-        <v>21.19210083006798</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.633739423638188</v>
       </c>
       <c r="M12">
-        <v>19.13988315830545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.33255809866118</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>36.67932707995358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28582935040847</v>
+        <v>27.15447065896577</v>
       </c>
       <c r="C13">
-        <v>15.89195210712019</v>
+        <v>15.15426291436734</v>
       </c>
       <c r="D13">
-        <v>9.596211378960032</v>
+        <v>2.914234775510576</v>
       </c>
       <c r="E13">
-        <v>9.353968626029044</v>
+        <v>6.599131158632364</v>
       </c>
       <c r="F13">
-        <v>81.2994450005704</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>47.9982024514247</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.43915868801205</v>
+        <v>6.137516617097131</v>
       </c>
       <c r="K13">
-        <v>21.12407411327452</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.629126098206957</v>
       </c>
       <c r="M13">
-        <v>19.08000158184398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.30255929655653</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.61913483171962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.02744410130031</v>
+        <v>26.89647397696465</v>
       </c>
       <c r="C14">
-        <v>15.71941440773734</v>
+        <v>15.01667240271751</v>
       </c>
       <c r="D14">
-        <v>9.521154742146106</v>
+        <v>2.895441063886584</v>
       </c>
       <c r="E14">
-        <v>9.27934393044846</v>
+        <v>6.600176153882884</v>
       </c>
       <c r="F14">
-        <v>80.550480029478</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>47.73141931242246</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.35732118348831</v>
+        <v>6.146106847627694</v>
       </c>
       <c r="K14">
-        <v>20.90184974437187</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.614165236369756</v>
       </c>
       <c r="M14">
-        <v>18.88436125031407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.20469049758046</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.42336955119988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.86880950831103</v>
+        <v>26.73774891630521</v>
       </c>
       <c r="C15">
-        <v>15.61357476550723</v>
+        <v>14.93201101698031</v>
       </c>
       <c r="D15">
-        <v>9.475176694250459</v>
+        <v>2.883946712653152</v>
       </c>
       <c r="E15">
-        <v>9.23368296370376</v>
+        <v>6.600835959970413</v>
       </c>
       <c r="F15">
-        <v>80.09104227170816</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>47.56847705466165</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.30724249324153</v>
+        <v>6.1513736382863</v>
       </c>
       <c r="K15">
-        <v>20.76543133715651</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.605065672562473</v>
       </c>
       <c r="M15">
-        <v>18.76424433262742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.14471535982912</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.30386558000858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.95361488222557</v>
+        <v>25.81792696789946</v>
       </c>
       <c r="C16">
-        <v>15.00425201715281</v>
+        <v>14.44086923691511</v>
       </c>
       <c r="D16">
-        <v>9.211504347483473</v>
+        <v>2.818311365244122</v>
       </c>
       <c r="E16">
-        <v>8.972663187110843</v>
+        <v>6.604908827655412</v>
       </c>
       <c r="F16">
-        <v>77.44669474579231</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>46.64180209382579</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.02089644836696</v>
+        <v>6.181641404273675</v>
       </c>
       <c r="K16">
-        <v>19.9786168006824</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.553894865798146</v>
       </c>
       <c r="M16">
-        <v>18.07119714081102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.80060857590822</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.62517614233277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.38618800622739</v>
+        <v>25.29127619903381</v>
       </c>
       <c r="C17">
-        <v>14.62753019087958</v>
+        <v>14.13412042428038</v>
       </c>
       <c r="D17">
-        <v>9.049446740601397</v>
+        <v>2.778222763120852</v>
       </c>
       <c r="E17">
-        <v>8.813012891570597</v>
+        <v>6.607657092118034</v>
       </c>
       <c r="F17">
-        <v>75.81308160581234</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>46.07951973030989</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.84568423689485</v>
+        <v>6.200295650610194</v>
       </c>
       <c r="K17">
-        <v>19.49094745737362</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.523361112601369</v>
       </c>
       <c r="M17">
-        <v>17.64143904630307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.58916018993832</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.21419191056118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.05742714995111</v>
+        <v>24.98576388788324</v>
       </c>
       <c r="C18">
-        <v>14.40961858521338</v>
+        <v>13.9556419035585</v>
       </c>
       <c r="D18">
-        <v>8.956076321949585</v>
+        <v>2.755217707116313</v>
       </c>
       <c r="E18">
-        <v>8.721327895214788</v>
+        <v>6.60932559968465</v>
       </c>
       <c r="F18">
-        <v>74.86887889078629</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>45.7583506807165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.74503296703762</v>
+        <v>6.211060205775144</v>
       </c>
       <c r="K18">
-        <v>19.20844595917797</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.506109587196626</v>
       </c>
       <c r="M18">
-        <v>17.39241724602692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.46742255869942</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>34.97974027812845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.9456864538325</v>
+        <v>24.88187541080231</v>
       </c>
       <c r="C19">
-        <v>14.33561202780268</v>
+        <v>13.89485715687093</v>
       </c>
       <c r="D19">
-        <v>8.924431265181326</v>
+        <v>2.747436595203704</v>
       </c>
       <c r="E19">
-        <v>8.690306540160138</v>
+        <v>6.609905247654184</v>
       </c>
       <c r="F19">
-        <v>74.5483648986196</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>45.64999021849792</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.71097254221777</v>
+        <v>6.214711255205837</v>
       </c>
       <c r="K19">
-        <v>19.11243550053646</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.500321464232972</v>
       </c>
       <c r="M19">
-        <v>17.30777425551916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.42618527325236</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>34.90068830935363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.44683498581089</v>
+        <v>25.34760748262621</v>
       </c>
       <c r="C20">
-        <v>14.66775691572289</v>
+        <v>14.16698506328952</v>
       </c>
       <c r="D20">
-        <v>9.066713522479741</v>
+        <v>2.7824845346959</v>
       </c>
       <c r="E20">
-        <v>8.829992605606748</v>
+        <v>6.607355363985647</v>
       </c>
       <c r="F20">
-        <v>75.98744928090514</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>46.13914296828175</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.86432200493115</v>
+        <v>6.198306316396287</v>
       </c>
       <c r="K20">
-        <v>19.54306463715347</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.526579228942681</v>
       </c>
       <c r="M20">
-        <v>17.6873744146796</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.61168174090955</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.25774078444022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.10341314518268</v>
+        <v>26.97239822946683</v>
       </c>
       <c r="C21">
-        <v>15.77012423816316</v>
+        <v>15.05716566920363</v>
       </c>
       <c r="D21">
-        <v>9.543201125469992</v>
+        <v>2.900957540385471</v>
       </c>
       <c r="E21">
-        <v>9.301252572466201</v>
+        <v>6.599865078750825</v>
       </c>
       <c r="F21">
-        <v>80.77060697498398</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>47.8096816904068</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.38134829662588</v>
+        <v>6.143582662945633</v>
       </c>
       <c r="K21">
-        <v>20.96718370004168</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.618546154564934</v>
       </c>
       <c r="M21">
-        <v>18.94188326379211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.23344271855551</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.48078526078491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.16915952234847</v>
+        <v>28.03124241196497</v>
       </c>
       <c r="C22">
-        <v>16.48319692019024</v>
+        <v>15.6216815217648</v>
       </c>
       <c r="D22">
-        <v>9.854313370677263</v>
+        <v>2.979129124390068</v>
       </c>
       <c r="E22">
-        <v>9.611335477299951</v>
+        <v>6.595841160876166</v>
       </c>
       <c r="F22">
-        <v>83.86531349321717</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>48.92240310874434</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.72134009496342</v>
+        <v>6.108052279356083</v>
       </c>
       <c r="K22">
-        <v>21.88403402759841</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.681521425442632</v>
       </c>
       <c r="M22">
-        <v>19.74876683268393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.63858463104651</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.29826447569419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.60166218046935</v>
+        <v>27.46890488964124</v>
       </c>
       <c r="C23">
-        <v>16.10309900431456</v>
+        <v>15.32191963598191</v>
       </c>
       <c r="D23">
-        <v>9.688231309803967</v>
+        <v>2.937324958409684</v>
       </c>
       <c r="E23">
-        <v>9.445597744319656</v>
+        <v>6.597904275375879</v>
       </c>
       <c r="F23">
-        <v>82.21593992667081</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>48.32654749896015</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.53963275753955</v>
+        <v>6.126998071610081</v>
       </c>
       <c r="K23">
-        <v>21.39575016176353</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.647642296215693</v>
       </c>
       <c r="M23">
-        <v>19.31912782325054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.42246675424011</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>36.86024601886515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.41942444162396</v>
+        <v>25.32214862906447</v>
       </c>
       <c r="C24">
-        <v>14.64957459033497</v>
+        <v>14.15213358737893</v>
       </c>
       <c r="D24">
-        <v>9.058907848611277</v>
+        <v>2.780557658478841</v>
       </c>
       <c r="E24">
-        <v>8.822315772920668</v>
+        <v>6.607491500570179</v>
       </c>
       <c r="F24">
-        <v>75.90863337594242</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>46.11218078732061</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.85589562828413</v>
+        <v>6.199205569031566</v>
       </c>
       <c r="K24">
-        <v>19.51950914775453</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.525123376667767</v>
       </c>
       <c r="M24">
-        <v>17.66661313704741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.60150028451372</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.23804665149881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.97244475391327</v>
+        <v>23.04597161751093</v>
       </c>
       <c r="C25">
-        <v>13.03330270812143</v>
+        <v>12.81175818378978</v>
       </c>
       <c r="D25">
-        <v>8.373689935400678</v>
+        <v>2.613375655423824</v>
       </c>
       <c r="E25">
-        <v>8.155324593211013</v>
+        <v>6.621153641023136</v>
       </c>
       <c r="F25">
-        <v>68.92722896371788</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>43.80924873788727</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.12302646809032</v>
+        <v>6.278472061609179</v>
       </c>
       <c r="K25">
-        <v>17.41743639756729</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.404801297570967</v>
       </c>
       <c r="M25">
-        <v>15.81263654460791</v>
+        <v>13.7117647626763</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.56207633543833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28480257740378</v>
+        <v>13.52074896905346</v>
       </c>
       <c r="C2">
-        <v>11.75297402465956</v>
+        <v>6.867314499331849</v>
       </c>
       <c r="D2">
-        <v>2.490769759274634</v>
+        <v>5.020463401636536</v>
       </c>
       <c r="E2">
-        <v>6.633689087913402</v>
+        <v>7.757832919526036</v>
       </c>
       <c r="F2">
-        <v>42.18456201514772</v>
+        <v>25.6098263014709</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.338395240668879</v>
+        <v>6.162014128103109</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.33608715764754</v>
       </c>
       <c r="L2">
-        <v>6.325902077997219</v>
+        <v>6.299822395651764</v>
       </c>
       <c r="M2">
-        <v>13.0551684143236</v>
+        <v>10.15291187533635</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.34649419600309</v>
       </c>
       <c r="O2">
-        <v>32.3884362047024</v>
+        <v>19.30245716506982</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03992748392879</v>
+        <v>12.76581492992726</v>
       </c>
       <c r="C3">
-        <v>10.98885626647346</v>
+        <v>6.79555034052284</v>
       </c>
       <c r="D3">
-        <v>2.407536151750756</v>
+        <v>4.889586361882466</v>
       </c>
       <c r="E3">
-        <v>6.643576800170489</v>
+        <v>7.765626775150472</v>
       </c>
       <c r="F3">
-        <v>41.12748683079506</v>
+        <v>25.50590803397035</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.380142169622379</v>
+        <v>6.205793426969938</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.688460239930691</v>
       </c>
       <c r="L3">
-        <v>6.278264562389967</v>
+        <v>6.239960404464998</v>
       </c>
       <c r="M3">
-        <v>12.6109809107276</v>
+        <v>9.883828076610065</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.54483736042062</v>
       </c>
       <c r="O3">
-        <v>31.62985989679339</v>
+        <v>19.33758714171482</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.25151260966144</v>
+        <v>12.28324311589495</v>
       </c>
       <c r="C4">
-        <v>10.49625776591713</v>
+        <v>6.751194915570887</v>
       </c>
       <c r="D4">
-        <v>2.356243332653262</v>
+        <v>4.809121524125967</v>
       </c>
       <c r="E4">
-        <v>6.650292601929476</v>
+        <v>7.772962614433815</v>
       </c>
       <c r="F4">
-        <v>40.50024006944876</v>
+        <v>25.45831710392569</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.406383949244554</v>
+        <v>6.233649935739098</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.268287930214802</v>
       </c>
       <c r="L4">
-        <v>6.251825696521315</v>
+        <v>6.204906646421207</v>
       </c>
       <c r="M4">
-        <v>12.33938773731826</v>
+        <v>9.718419665731277</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.6695304384478</v>
       </c>
       <c r="O4">
-        <v>31.18208520732745</v>
+        <v>19.37092202669337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.92444702557149</v>
+        <v>12.08199524841381</v>
       </c>
       <c r="C5">
-        <v>10.28957553604035</v>
+        <v>6.733051877166217</v>
       </c>
       <c r="D5">
-        <v>2.33527977970228</v>
+        <v>4.776350828073797</v>
       </c>
       <c r="E5">
-        <v>6.65318592177528</v>
+        <v>7.776584606142693</v>
       </c>
       <c r="F5">
-        <v>40.25014368542266</v>
+        <v>25.44290647209377</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.417237407912191</v>
+        <v>6.24524964852744</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.091403159178721</v>
       </c>
       <c r="L5">
-        <v>6.241748952111091</v>
+        <v>6.191057098059487</v>
       </c>
       <c r="M5">
-        <v>12.2291275644377</v>
+        <v>9.651059627715759</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.72109447052266</v>
       </c>
       <c r="O5">
-        <v>31.00412194139317</v>
+        <v>19.38737334329403</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.86979832675322</v>
+        <v>12.04830700361754</v>
       </c>
       <c r="C6">
-        <v>10.25489577272027</v>
+        <v>6.730035307885304</v>
       </c>
       <c r="D6">
-        <v>2.331794721250404</v>
+        <v>4.770911828497188</v>
       </c>
       <c r="E6">
-        <v>6.6536756616767</v>
+        <v>7.77722398507931</v>
       </c>
       <c r="F6">
-        <v>40.2089491275981</v>
+        <v>25.44058525812897</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.41904944748352</v>
+        <v>6.247190822452359</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.061689918735686</v>
       </c>
       <c r="L6">
-        <v>6.240117551419643</v>
+        <v>6.188783869306858</v>
       </c>
       <c r="M6">
-        <v>12.21084811769632</v>
+        <v>9.639880069155586</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.72970251312253</v>
       </c>
       <c r="O6">
-        <v>30.9748430658672</v>
+        <v>19.39027558110814</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.24712467956034</v>
+        <v>12.28054734290973</v>
       </c>
       <c r="C7">
-        <v>10.49349450697295</v>
+        <v>6.750950499426467</v>
       </c>
       <c r="D7">
-        <v>2.35596087628597</v>
+        <v>4.808679426486342</v>
       </c>
       <c r="E7">
-        <v>6.650330995157169</v>
+        <v>7.773008912152628</v>
       </c>
       <c r="F7">
-        <v>40.49684482578997</v>
+        <v>25.4580932718579</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.406529667686274</v>
+        <v>6.233805366167523</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.265925311835009</v>
       </c>
       <c r="L7">
-        <v>6.25168698728099</v>
+        <v>6.204718095679772</v>
       </c>
       <c r="M7">
-        <v>12.33789886411362</v>
+        <v>9.717510915823732</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.67022278533808</v>
       </c>
       <c r="O7">
-        <v>31.17966690014897</v>
+        <v>19.37113240626605</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.86070035418381</v>
+        <v>13.2645023309383</v>
       </c>
       <c r="C8">
-        <v>11.4943323886751</v>
+        <v>6.842634079895865</v>
       </c>
       <c r="D8">
-        <v>2.462100259935688</v>
+        <v>4.975385941300278</v>
       </c>
       <c r="E8">
-        <v>6.636961029211387</v>
+        <v>7.759985660417932</v>
       </c>
       <c r="F8">
-        <v>41.8155739643558</v>
+        <v>25.57057455643835</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.352667292014667</v>
+        <v>6.176908267121017</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.11746039606963</v>
       </c>
       <c r="L8">
-        <v>6.308887594524458</v>
+        <v>6.278833324613207</v>
       </c>
       <c r="M8">
-        <v>12.90184958608166</v>
+        <v>10.06022567546942</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.41429070453009</v>
       </c>
       <c r="O8">
-        <v>32.12313428558421</v>
+        <v>19.31207302651291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.82605174693361</v>
+        <v>15.03641440010437</v>
       </c>
       <c r="C9">
-        <v>13.27417019307131</v>
+        <v>7.019881102295181</v>
       </c>
       <c r="D9">
-        <v>2.669546819857862</v>
+        <v>5.299547040256387</v>
       </c>
       <c r="E9">
-        <v>6.616144172209082</v>
+        <v>7.755075078189555</v>
       </c>
       <c r="F9">
-        <v>44.57387480366305</v>
+        <v>25.92377555612875</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.251552076292501</v>
+        <v>6.072955410117913</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.60882630625004</v>
       </c>
       <c r="L9">
-        <v>6.443796267261153</v>
+        <v>6.437330552483697</v>
       </c>
       <c r="M9">
-        <v>14.01188889412989</v>
+        <v>10.72693259150077</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.9345915129254</v>
       </c>
       <c r="O9">
-        <v>34.11709824569058</v>
+        <v>19.29372503034497</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.88241098249758</v>
+        <v>16.23557081767096</v>
       </c>
       <c r="C10">
-        <v>14.47559733226596</v>
+        <v>7.148278530232084</v>
       </c>
       <c r="D10">
-        <v>2.822893762681332</v>
+        <v>5.533658967734356</v>
       </c>
       <c r="E10">
-        <v>6.604607406830771</v>
+        <v>7.764581967448136</v>
       </c>
       <c r="F10">
-        <v>46.70626864444803</v>
+        <v>26.26917191121558</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.179517332608367</v>
+        <v>6.001053941058576</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.59651803019633</v>
       </c>
       <c r="L10">
-        <v>6.557421402282447</v>
+        <v>6.561308770218805</v>
       </c>
       <c r="M10">
-        <v>14.82471944928932</v>
+        <v>11.20873940169653</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>13.59435185510379</v>
       </c>
       <c r="O10">
-        <v>35.67233716092138</v>
+        <v>19.34533765906283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.86616222363737</v>
+        <v>16.75793143919515</v>
       </c>
       <c r="C11">
-        <v>15.00050537673766</v>
+        <v>7.2062434020824</v>
       </c>
       <c r="D11">
-        <v>2.893241990758196</v>
+        <v>5.638840152854762</v>
       </c>
       <c r="E11">
-        <v>6.600301168476473</v>
+        <v>7.771870390638356</v>
       </c>
       <c r="F11">
-        <v>47.70023199247466</v>
+        <v>26.44592028900966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.147113713549921</v>
+        <v>5.969276156019646</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.02266028365523</v>
       </c>
       <c r="L11">
-        <v>6.612421311863336</v>
+        <v>6.61923378762436</v>
       </c>
       <c r="M11">
-        <v>15.19322305118085</v>
+        <v>11.42530261352875</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>13.44190707090615</v>
       </c>
       <c r="O11">
-        <v>36.40049263871536</v>
+        <v>19.38417388372861</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.2333055990099</v>
+        <v>16.95236123021674</v>
       </c>
       <c r="C12">
-        <v>15.19630099427809</v>
+        <v>7.228125640854484</v>
       </c>
       <c r="D12">
-        <v>2.92000480514925</v>
+        <v>5.678447369303847</v>
       </c>
       <c r="E12">
-        <v>6.598818700488163</v>
+        <v>7.775065932402125</v>
       </c>
       <c r="F12">
-        <v>48.08019615772059</v>
+        <v>26.51574334119571</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.134884478093282</v>
+        <v>5.95737331389507</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.18072445892635</v>
       </c>
       <c r="L12">
-        <v>6.633739423638188</v>
+        <v>6.641378344835182</v>
       </c>
       <c r="M12">
-        <v>15.33255809866118</v>
+        <v>11.50686921949255</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>13.38448890114904</v>
       </c>
       <c r="O12">
-        <v>36.67932707995358</v>
+        <v>19.40118870129015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.15447065896577</v>
+        <v>16.91063808675645</v>
       </c>
       <c r="C13">
-        <v>15.15426291436734</v>
+        <v>7.223415982017396</v>
       </c>
       <c r="D13">
-        <v>2.914234775510576</v>
+        <v>5.669927640363801</v>
       </c>
       <c r="E13">
-        <v>6.599131158632364</v>
+        <v>7.774358192991496</v>
       </c>
       <c r="F13">
-        <v>47.9982024514247</v>
+        <v>26.50057599866634</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.137516617097131</v>
+        <v>5.959931040735227</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.14682915386401</v>
       </c>
       <c r="L13">
-        <v>6.629126098206957</v>
+        <v>6.636599953064224</v>
       </c>
       <c r="M13">
-        <v>15.30255929655653</v>
+        <v>11.48932298027698</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>13.39684160160144</v>
       </c>
       <c r="O13">
-        <v>36.61913483171962</v>
+        <v>19.39741999926139</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.89647397696465</v>
+        <v>16.77399519387092</v>
       </c>
       <c r="C14">
-        <v>15.01667240271751</v>
+        <v>7.208045046661231</v>
       </c>
       <c r="D14">
-        <v>2.895441063886584</v>
+        <v>5.642103302149462</v>
       </c>
       <c r="E14">
-        <v>6.600176153882884</v>
+        <v>7.772124506266255</v>
       </c>
       <c r="F14">
-        <v>47.73141931242246</v>
+        <v>26.45160632391856</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.146106847627694</v>
+        <v>5.968294300409292</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.03573043812798</v>
       </c>
       <c r="L14">
-        <v>6.614165236369756</v>
+        <v>6.621051489402598</v>
       </c>
       <c r="M14">
-        <v>15.20469049758046</v>
+        <v>11.43202233905098</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>13.43717719741318</v>
       </c>
       <c r="O14">
-        <v>36.42336955119988</v>
+        <v>19.38552686730235</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.73774891630521</v>
+        <v>16.68985654184923</v>
       </c>
       <c r="C15">
-        <v>14.93201101698031</v>
+        <v>7.19862096667597</v>
       </c>
       <c r="D15">
-        <v>2.883946712653152</v>
+        <v>5.625030172572657</v>
       </c>
       <c r="E15">
-        <v>6.600835959970413</v>
+        <v>7.770813312791967</v>
       </c>
       <c r="F15">
-        <v>47.56847705466165</v>
+        <v>26.42198964043303</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.1513736382863</v>
+        <v>5.973433967787068</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.96724941930809</v>
       </c>
       <c r="L15">
-        <v>6.605065672562473</v>
+        <v>6.611554610268561</v>
       </c>
       <c r="M15">
-        <v>15.14471535982912</v>
+        <v>11.39686476478749</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.46192340695879</v>
       </c>
       <c r="O15">
-        <v>36.30386558000858</v>
+        <v>19.37854556571669</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81792696789946</v>
+        <v>16.20096306561677</v>
       </c>
       <c r="C16">
-        <v>14.44086923691511</v>
+        <v>7.144481106277886</v>
       </c>
       <c r="D16">
-        <v>2.818311365244122</v>
+        <v>5.526755708618775</v>
       </c>
       <c r="E16">
-        <v>6.604908827655412</v>
+        <v>7.764166091622593</v>
       </c>
       <c r="F16">
-        <v>46.64180209382579</v>
+        <v>26.25802201824542</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.181641404273675</v>
+        <v>6.00314915673623</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.56820451787558</v>
       </c>
       <c r="L16">
-        <v>6.553894865798146</v>
+        <v>6.557553105755554</v>
       </c>
       <c r="M16">
-        <v>14.80060857590822</v>
+        <v>11.19452815212818</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.60435921785659</v>
       </c>
       <c r="O16">
-        <v>35.62517614233277</v>
+        <v>19.34311720234301</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.29127619903381</v>
+        <v>15.8950751689723</v>
       </c>
       <c r="C17">
-        <v>14.13412042428038</v>
+        <v>7.111151385671673</v>
       </c>
       <c r="D17">
-        <v>2.778222763120852</v>
+        <v>5.466105427534513</v>
       </c>
       <c r="E17">
-        <v>6.607657092118034</v>
+        <v>7.760853987322649</v>
       </c>
       <c r="F17">
-        <v>46.07951973030989</v>
+        <v>26.16251132691032</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.200295650610194</v>
+        <v>6.021614628089778</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.31748682615249</v>
       </c>
       <c r="L17">
-        <v>6.523361112601369</v>
+        <v>6.524808887193901</v>
       </c>
       <c r="M17">
-        <v>14.58916018993832</v>
+        <v>11.06968315212292</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.69231821463414</v>
       </c>
       <c r="O17">
-        <v>35.21419191056118</v>
+        <v>19.32538763715894</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98576388788324</v>
+        <v>15.71696008966244</v>
       </c>
       <c r="C18">
-        <v>13.9556419035585</v>
+        <v>7.09193944887792</v>
       </c>
       <c r="D18">
-        <v>2.755217707116313</v>
+        <v>5.431098756198514</v>
       </c>
       <c r="E18">
-        <v>6.60932559968465</v>
+        <v>7.759227346110937</v>
       </c>
       <c r="F18">
-        <v>45.7583506807165</v>
+        <v>26.10941952411892</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.211060205775144</v>
+        <v>6.032323258245261</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.17109869282276</v>
       </c>
       <c r="L18">
-        <v>6.506109587196626</v>
+        <v>6.506119576819747</v>
       </c>
       <c r="M18">
-        <v>14.46742255869942</v>
+        <v>10.99763312364277</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.74313103493889</v>
       </c>
       <c r="O18">
-        <v>34.97974027812845</v>
+        <v>19.31662959279588</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88187541080231</v>
+        <v>15.65628135502321</v>
       </c>
       <c r="C19">
-        <v>13.89485715687093</v>
+        <v>7.085427609257465</v>
       </c>
       <c r="D19">
-        <v>2.747436595203704</v>
+        <v>5.419226169252318</v>
       </c>
       <c r="E19">
-        <v>6.609905247654184</v>
+        <v>7.758724121807911</v>
       </c>
       <c r="F19">
-        <v>45.64999021849792</v>
+        <v>26.09175794252542</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.214711255205837</v>
+        <v>6.035964185330362</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.12115874972829</v>
       </c>
       <c r="L19">
-        <v>6.500321464232972</v>
+        <v>6.499816783748044</v>
       </c>
       <c r="M19">
-        <v>14.42618527325236</v>
+        <v>10.97319868233852</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.76037413029125</v>
       </c>
       <c r="O19">
-        <v>34.90068830935363</v>
+        <v>19.31390846119303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.34760748262621</v>
+        <v>15.92786312173466</v>
       </c>
       <c r="C20">
-        <v>14.16698506328952</v>
+        <v>7.114703723612535</v>
       </c>
       <c r="D20">
-        <v>2.7824845346959</v>
+        <v>5.472574654894311</v>
       </c>
       <c r="E20">
-        <v>6.607355363985647</v>
+        <v>7.761177685828089</v>
       </c>
       <c r="F20">
-        <v>46.13914296828175</v>
+        <v>26.17248729236437</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.198306316396287</v>
+        <v>6.019639884417503</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.34440181044008</v>
       </c>
       <c r="L20">
-        <v>6.526579228942681</v>
+        <v>6.528279702915523</v>
       </c>
       <c r="M20">
-        <v>14.61168174090955</v>
+        <v>11.08299870802447</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>13.68293212650122</v>
       </c>
       <c r="O20">
-        <v>35.25774078444022</v>
+        <v>19.32712526863016</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.97239822946683</v>
+        <v>16.8142224787005</v>
       </c>
       <c r="C21">
-        <v>15.05716566920363</v>
+        <v>7.212561731995351</v>
       </c>
       <c r="D21">
-        <v>2.900957540385471</v>
+        <v>5.650282274394653</v>
       </c>
       <c r="E21">
-        <v>6.599865078750825</v>
+        <v>7.772768697768632</v>
       </c>
       <c r="F21">
-        <v>47.8096816904068</v>
+        <v>26.46591087455488</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.143582662945633</v>
+        <v>5.965834285930481</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.06845235601293</v>
       </c>
       <c r="L21">
-        <v>6.618546154564934</v>
+        <v>6.62561284011207</v>
       </c>
       <c r="M21">
-        <v>15.23344271855551</v>
+        <v>11.4488653865511</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>13.42532147341789</v>
       </c>
       <c r="O21">
-        <v>36.48078526078491</v>
+        <v>19.38895672338032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.03124241196497</v>
+        <v>17.37381528525586</v>
       </c>
       <c r="C22">
-        <v>15.6216815217648</v>
+        <v>7.276120976754502</v>
       </c>
       <c r="D22">
-        <v>2.979129124390068</v>
+        <v>5.765113854405634</v>
       </c>
       <c r="E22">
-        <v>6.595841160876166</v>
+        <v>7.782887344311082</v>
       </c>
       <c r="F22">
-        <v>48.92240310874434</v>
+        <v>26.67456771798585</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.108052279356083</v>
+        <v>5.931429614336981</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.52240106255462</v>
       </c>
       <c r="L22">
-        <v>6.681521425442632</v>
+        <v>6.690442915665551</v>
       </c>
       <c r="M22">
-        <v>15.63858463104651</v>
+        <v>11.68538347672145</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>13.25874809661552</v>
       </c>
       <c r="O22">
-        <v>37.29826447569419</v>
+        <v>19.4428684359155</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.46890488964124</v>
+        <v>17.07696410664133</v>
       </c>
       <c r="C23">
-        <v>15.32191963598191</v>
+        <v>7.242235668352826</v>
       </c>
       <c r="D23">
-        <v>2.937324958409684</v>
+        <v>5.703956102569371</v>
       </c>
       <c r="E23">
-        <v>6.597904275375879</v>
+        <v>7.777251009018095</v>
       </c>
       <c r="F23">
-        <v>48.32654749896015</v>
+        <v>26.56163650423724</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.126998071610081</v>
+        <v>5.949723509022032</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.28187355972759</v>
       </c>
       <c r="L23">
-        <v>6.647642296215693</v>
+        <v>6.655733761747198</v>
       </c>
       <c r="M23">
-        <v>15.42246675424011</v>
+        <v>11.55940673931195</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>13.34749661694477</v>
       </c>
       <c r="O23">
-        <v>36.86024601886515</v>
+        <v>19.41282637617065</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.32214862906447</v>
+        <v>15.91304671148941</v>
       </c>
       <c r="C24">
-        <v>14.15213358737893</v>
+        <v>7.113097867794617</v>
       </c>
       <c r="D24">
-        <v>2.780557658478841</v>
+        <v>5.469650344543316</v>
       </c>
       <c r="E24">
-        <v>6.607491500570179</v>
+        <v>7.761030477995535</v>
       </c>
       <c r="F24">
-        <v>46.11218078732061</v>
+        <v>26.16797149931988</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.199205569031566</v>
+        <v>6.020532377417888</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.33224054734699</v>
       </c>
       <c r="L24">
-        <v>6.525123376667767</v>
+        <v>6.526710123457886</v>
       </c>
       <c r="M24">
-        <v>14.60150028451372</v>
+        <v>11.07697959664343</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13.68717481492723</v>
       </c>
       <c r="O24">
-        <v>35.23804665149881</v>
+        <v>19.32633522356688</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04597161751093</v>
+        <v>14.57472421134595</v>
       </c>
       <c r="C25">
-        <v>12.81175818378978</v>
+        <v>6.972233140713962</v>
       </c>
       <c r="D25">
-        <v>2.613375655423824</v>
+        <v>5.212403119213579</v>
       </c>
       <c r="E25">
-        <v>6.621153641023136</v>
+        <v>7.754139398455544</v>
       </c>
       <c r="F25">
-        <v>43.80924873788727</v>
+        <v>25.81348403344796</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.278472061609179</v>
+        <v>6.100279087904415</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.22441811342609</v>
       </c>
       <c r="L25">
-        <v>6.404801297570967</v>
+        <v>6.393093273115371</v>
       </c>
       <c r="M25">
-        <v>13.7117647626763</v>
+        <v>10.54765835331314</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.06212122203396</v>
       </c>
       <c r="O25">
-        <v>33.56207633543833</v>
+        <v>19.28766963315775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52074896905346</v>
+        <v>14.98943825577132</v>
       </c>
       <c r="C2">
-        <v>6.867314499331849</v>
+        <v>8.454860364875108</v>
       </c>
       <c r="D2">
-        <v>5.020463401636536</v>
+        <v>7.826453265643561</v>
       </c>
       <c r="E2">
-        <v>7.757832919526036</v>
+        <v>13.18243162950818</v>
       </c>
       <c r="F2">
-        <v>25.6098263014709</v>
+        <v>39.21268724597822</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.162014128103109</v>
+        <v>10.46998192983836</v>
       </c>
       <c r="K2">
-        <v>10.33608715764754</v>
+        <v>11.17209005334947</v>
       </c>
       <c r="L2">
-        <v>6.299822395651764</v>
+        <v>10.75886745923918</v>
       </c>
       <c r="M2">
-        <v>10.15291187533635</v>
+        <v>15.85931230122848</v>
       </c>
       <c r="N2">
-        <v>14.34649419600309</v>
+        <v>22.14080014276757</v>
       </c>
       <c r="O2">
-        <v>19.30245716506982</v>
+        <v>30.35078949967882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76581492992726</v>
+        <v>14.83767363624774</v>
       </c>
       <c r="C3">
-        <v>6.79555034052284</v>
+        <v>8.433782680159677</v>
       </c>
       <c r="D3">
-        <v>4.889586361882466</v>
+        <v>7.818760874871302</v>
       </c>
       <c r="E3">
-        <v>7.765626775150472</v>
+        <v>13.20497416956307</v>
       </c>
       <c r="F3">
-        <v>25.50590803397035</v>
+        <v>39.29629240620887</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.205793426969938</v>
+        <v>10.48674579404068</v>
       </c>
       <c r="K3">
-        <v>9.688460239930691</v>
+        <v>11.05898004020352</v>
       </c>
       <c r="L3">
-        <v>6.239960404464998</v>
+        <v>10.76701763653766</v>
       </c>
       <c r="M3">
-        <v>9.883828076610065</v>
+        <v>15.84351969159543</v>
       </c>
       <c r="N3">
-        <v>14.54483736042062</v>
+        <v>22.2010166238085</v>
       </c>
       <c r="O3">
-        <v>19.33758714171482</v>
+        <v>30.4301639208446</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28324311589495</v>
+        <v>14.74646009688573</v>
       </c>
       <c r="C4">
-        <v>6.751194915570887</v>
+        <v>8.4207100879427</v>
       </c>
       <c r="D4">
-        <v>4.809121524125967</v>
+        <v>7.815012378423155</v>
       </c>
       <c r="E4">
-        <v>7.772962614433815</v>
+        <v>13.22007704451477</v>
       </c>
       <c r="F4">
-        <v>25.45831710392569</v>
+        <v>39.3544338406386</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.233649935739098</v>
+        <v>10.49760597704258</v>
       </c>
       <c r="K4">
-        <v>9.268287930214802</v>
+        <v>10.99079257564639</v>
       </c>
       <c r="L4">
-        <v>6.204906646421207</v>
+        <v>10.77309331754179</v>
       </c>
       <c r="M4">
-        <v>9.718419665731277</v>
+        <v>15.8358324600591</v>
       </c>
       <c r="N4">
-        <v>14.6695304384478</v>
+        <v>22.23974107025943</v>
       </c>
       <c r="O4">
-        <v>19.37092202669337</v>
+        <v>30.48369821669938</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08199524841381</v>
+        <v>14.70982404545595</v>
       </c>
       <c r="C5">
-        <v>6.733051877166217</v>
+        <v>8.415351013580509</v>
       </c>
       <c r="D5">
-        <v>4.776350828073797</v>
+        <v>7.813731502843487</v>
       </c>
       <c r="E5">
-        <v>7.776584606142693</v>
+        <v>13.22654939544054</v>
       </c>
       <c r="F5">
-        <v>25.44290647209377</v>
+        <v>39.37983782280898</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.24524964852744</v>
+        <v>10.50217458702363</v>
       </c>
       <c r="K5">
-        <v>9.091403159178721</v>
+        <v>10.96335117137787</v>
       </c>
       <c r="L5">
-        <v>6.191057098059487</v>
+        <v>10.77583929229319</v>
       </c>
       <c r="M5">
-        <v>9.651059627715759</v>
+        <v>15.83320834543768</v>
       </c>
       <c r="N5">
-        <v>14.72109447052266</v>
+        <v>22.25596323037436</v>
       </c>
       <c r="O5">
-        <v>19.38737334329403</v>
+        <v>30.50672002068924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04830700361754</v>
+        <v>14.70377403356782</v>
       </c>
       <c r="C6">
-        <v>6.730035307885304</v>
+        <v>8.414459246676701</v>
       </c>
       <c r="D6">
-        <v>4.770911828497188</v>
+        <v>7.813533756555787</v>
       </c>
       <c r="E6">
-        <v>7.77722398507931</v>
+        <v>13.22764333519221</v>
       </c>
       <c r="F6">
-        <v>25.44058525812897</v>
+        <v>39.38415943619483</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.247190822452359</v>
+        <v>10.50294184953439</v>
       </c>
       <c r="K6">
-        <v>9.061689918735686</v>
+        <v>10.95881622507057</v>
       </c>
       <c r="L6">
-        <v>6.188783869306858</v>
+        <v>10.77631159062848</v>
       </c>
       <c r="M6">
-        <v>9.639880069155586</v>
+        <v>15.83280341377083</v>
       </c>
       <c r="N6">
-        <v>14.72970251312253</v>
+        <v>22.25868361835613</v>
       </c>
       <c r="O6">
-        <v>19.39027558110814</v>
+        <v>30.51061560999858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28054734290973</v>
+        <v>14.74596379689704</v>
       </c>
       <c r="C7">
-        <v>6.750950499426467</v>
+        <v>8.420637941376651</v>
       </c>
       <c r="D7">
-        <v>4.808679426486342</v>
+        <v>7.814994103327525</v>
       </c>
       <c r="E7">
-        <v>7.773008912152628</v>
+        <v>13.2201630453829</v>
       </c>
       <c r="F7">
-        <v>25.4580932718579</v>
+        <v>39.35476952174234</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.233805366167523</v>
+        <v>10.49766701139809</v>
       </c>
       <c r="K7">
-        <v>9.265925311835009</v>
+        <v>10.99042105556567</v>
       </c>
       <c r="L7">
-        <v>6.204718095679772</v>
+        <v>10.77312925629354</v>
       </c>
       <c r="M7">
-        <v>9.717510915823732</v>
+        <v>15.83579500741014</v>
       </c>
       <c r="N7">
-        <v>14.67022278533808</v>
+        <v>22.2399580581567</v>
       </c>
       <c r="O7">
-        <v>19.37113240626605</v>
+        <v>30.48400381370375</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2645023309383</v>
+        <v>14.93672432002265</v>
       </c>
       <c r="C8">
-        <v>6.842634079895865</v>
+        <v>8.447620531385494</v>
       </c>
       <c r="D8">
-        <v>4.975385941300278</v>
+        <v>7.823599616680181</v>
       </c>
       <c r="E8">
-        <v>7.759985660417932</v>
+        <v>13.18994277144606</v>
       </c>
       <c r="F8">
-        <v>25.57057455643835</v>
+        <v>39.24010089852858</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.176908267121017</v>
+        <v>10.47564464598139</v>
       </c>
       <c r="K8">
-        <v>10.11746039606963</v>
+        <v>11.13284469143176</v>
       </c>
       <c r="L8">
-        <v>6.278833324613207</v>
+        <v>10.76145566860045</v>
       </c>
       <c r="M8">
-        <v>10.06022567546942</v>
+        <v>15.85345191713099</v>
       </c>
       <c r="N8">
-        <v>14.41429070453009</v>
+        <v>22.16120006803234</v>
       </c>
       <c r="O8">
-        <v>19.31207302651291</v>
+        <v>30.37716174986309</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03641440010437</v>
+        <v>15.32470085877999</v>
       </c>
       <c r="C9">
-        <v>7.019881102295181</v>
+        <v>8.499452317396232</v>
       </c>
       <c r="D9">
-        <v>5.299547040256387</v>
+        <v>7.848135364505056</v>
       </c>
       <c r="E9">
-        <v>7.755075078189555</v>
+        <v>13.14066723275279</v>
       </c>
       <c r="F9">
-        <v>25.92377555612875</v>
+        <v>39.06928683177451</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.072955410117913</v>
+        <v>10.43694055117991</v>
       </c>
       <c r="K9">
-        <v>11.60882630625004</v>
+        <v>11.42089747315581</v>
       </c>
       <c r="L9">
-        <v>6.437330552483697</v>
+        <v>10.74703558540002</v>
       </c>
       <c r="M9">
-        <v>10.72693259150077</v>
+        <v>15.90387347449309</v>
       </c>
       <c r="N9">
-        <v>13.9345915129254</v>
+        <v>22.02059308063252</v>
       </c>
       <c r="O9">
-        <v>19.29372503034497</v>
+        <v>30.20573099641377</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.23557081767096</v>
+        <v>15.61584971034157</v>
       </c>
       <c r="C10">
-        <v>7.148278530232084</v>
+        <v>8.536817980687825</v>
       </c>
       <c r="D10">
-        <v>5.533658967734356</v>
+        <v>7.870728217622279</v>
       </c>
       <c r="E10">
-        <v>7.764581967448136</v>
+        <v>13.11051928720114</v>
       </c>
       <c r="F10">
-        <v>26.26917191121558</v>
+        <v>38.97678120092618</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.001053941058576</v>
+        <v>10.41121161155599</v>
       </c>
       <c r="K10">
-        <v>12.59651803019633</v>
+        <v>11.63616428011431</v>
       </c>
       <c r="L10">
-        <v>6.561308770218805</v>
+        <v>10.74156529659041</v>
       </c>
       <c r="M10">
-        <v>11.20873940169653</v>
+        <v>15.95033816151686</v>
       </c>
       <c r="N10">
-        <v>13.59435185510379</v>
+        <v>21.92564140667564</v>
       </c>
       <c r="O10">
-        <v>19.34533765906283</v>
+        <v>30.10301880039655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75793143919515</v>
+        <v>15.7491178999304</v>
       </c>
       <c r="C11">
-        <v>7.2062434020824</v>
+        <v>8.553649251027885</v>
       </c>
       <c r="D11">
-        <v>5.638840152854762</v>
+        <v>7.881973576386063</v>
       </c>
       <c r="E11">
-        <v>7.771870390638356</v>
+        <v>13.09811181105012</v>
       </c>
       <c r="F11">
-        <v>26.44592028900966</v>
+        <v>38.94186606478449</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.969276156019646</v>
+        <v>10.4000892928218</v>
       </c>
       <c r="K11">
-        <v>13.02266028365523</v>
+        <v>11.73451927196706</v>
       </c>
       <c r="L11">
-        <v>6.61923378762436</v>
+        <v>10.74018015489201</v>
       </c>
       <c r="M11">
-        <v>11.42530261352875</v>
+        <v>15.97347222784692</v>
       </c>
       <c r="N11">
-        <v>13.44190707090615</v>
+        <v>21.88424128782863</v>
       </c>
       <c r="O11">
-        <v>19.38417388372861</v>
+        <v>30.06134145885405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.95236123021674</v>
+        <v>15.79965906265242</v>
       </c>
       <c r="C12">
-        <v>7.228125640854484</v>
+        <v>8.559997775706563</v>
       </c>
       <c r="D12">
-        <v>5.678447369303847</v>
+        <v>7.886368809445937</v>
       </c>
       <c r="E12">
-        <v>7.775065932402125</v>
+        <v>13.09360077864878</v>
       </c>
       <c r="F12">
-        <v>26.51574334119571</v>
+        <v>38.92967499374423</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.95737331389507</v>
+        <v>10.39596083502762</v>
       </c>
       <c r="K12">
-        <v>13.18072445892635</v>
+        <v>11.77179507604473</v>
       </c>
       <c r="L12">
-        <v>6.641378344835182</v>
+        <v>10.73981344650792</v>
       </c>
       <c r="M12">
-        <v>11.50686921949255</v>
+        <v>15.98251507315575</v>
       </c>
       <c r="N12">
-        <v>13.38448890114904</v>
+        <v>21.8688207883532</v>
       </c>
       <c r="O12">
-        <v>19.40118870129015</v>
+        <v>30.04628526611083</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91063808675645</v>
+        <v>15.78877144490823</v>
       </c>
       <c r="C13">
-        <v>7.223415982017396</v>
+        <v>8.558631642775449</v>
       </c>
       <c r="D13">
-        <v>5.669927640363801</v>
+        <v>7.885416168297475</v>
       </c>
       <c r="E13">
-        <v>7.774358192991496</v>
+        <v>13.0945639836473</v>
       </c>
       <c r="F13">
-        <v>26.50057599866634</v>
+        <v>38.93225472780937</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.959931040735227</v>
+        <v>10.39684627207723</v>
       </c>
       <c r="K13">
-        <v>13.14682915386401</v>
+        <v>11.76376617638724</v>
       </c>
       <c r="L13">
-        <v>6.636599953064224</v>
+        <v>10.73988541865332</v>
       </c>
       <c r="M13">
-        <v>11.48932298027698</v>
+        <v>15.98055504857865</v>
       </c>
       <c r="N13">
-        <v>13.39684160160144</v>
+        <v>21.87213046424669</v>
       </c>
       <c r="O13">
-        <v>19.39741999926139</v>
+        <v>30.04949558752908</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77399519387092</v>
+        <v>15.75327468526613</v>
       </c>
       <c r="C14">
-        <v>7.208045046661231</v>
+        <v>8.554172057939205</v>
       </c>
       <c r="D14">
-        <v>5.642103302149462</v>
+        <v>7.88233244555116</v>
       </c>
       <c r="E14">
-        <v>7.772124506266255</v>
+        <v>13.09773693280484</v>
       </c>
       <c r="F14">
-        <v>26.45160632391856</v>
+        <v>38.94084244526817</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.968294300409292</v>
+        <v>10.39974797421605</v>
       </c>
       <c r="K14">
-        <v>13.03573043812798</v>
+        <v>11.73758553045734</v>
       </c>
       <c r="L14">
-        <v>6.621051489402598</v>
+        <v>10.74014682767893</v>
       </c>
       <c r="M14">
-        <v>11.43202233905098</v>
+        <v>15.97421055462437</v>
       </c>
       <c r="N14">
-        <v>13.43717719741318</v>
+        <v>21.88296749329284</v>
       </c>
       <c r="O14">
-        <v>19.38552686730235</v>
+        <v>30.06008822261166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68985654184923</v>
+        <v>15.73154044598958</v>
       </c>
       <c r="C15">
-        <v>7.19862096667597</v>
+        <v>8.551437128511242</v>
       </c>
       <c r="D15">
-        <v>5.625030172572657</v>
+        <v>7.880461329338585</v>
       </c>
       <c r="E15">
-        <v>7.770813312791967</v>
+        <v>13.09970484612815</v>
       </c>
       <c r="F15">
-        <v>26.42198964043303</v>
+        <v>38.94623687298803</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.973433967787068</v>
+        <v>10.40153619120933</v>
       </c>
       <c r="K15">
-        <v>12.96724941930809</v>
+        <v>11.72155224599953</v>
       </c>
       <c r="L15">
-        <v>6.611554610268561</v>
+        <v>10.74032747479933</v>
       </c>
       <c r="M15">
-        <v>11.39686476478749</v>
+        <v>15.97036101242619</v>
       </c>
       <c r="N15">
-        <v>13.46192340695879</v>
+        <v>21.88963889961046</v>
       </c>
       <c r="O15">
-        <v>19.37854556571669</v>
+        <v>30.06667108829571</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.20096306561677</v>
+        <v>15.6071532005185</v>
       </c>
       <c r="C16">
-        <v>7.144481106277886</v>
+        <v>8.535714566944696</v>
       </c>
       <c r="D16">
-        <v>5.526755708618775</v>
+        <v>7.870012586366229</v>
       </c>
       <c r="E16">
-        <v>7.764166091622593</v>
+        <v>13.11135639932392</v>
       </c>
       <c r="F16">
-        <v>26.25802201824542</v>
+        <v>38.97920719867742</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.00314915673623</v>
+        <v>10.41195016029251</v>
       </c>
       <c r="K16">
-        <v>12.56820451787558</v>
+        <v>11.62974254308157</v>
       </c>
       <c r="L16">
-        <v>6.557553105755554</v>
+        <v>10.74167794938631</v>
       </c>
       <c r="M16">
-        <v>11.19452815212818</v>
+        <v>15.9488660852755</v>
       </c>
       <c r="N16">
-        <v>13.60435921785659</v>
+        <v>21.92838300230257</v>
       </c>
       <c r="O16">
-        <v>19.34311720234301</v>
+        <v>30.10584410324226</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8950751689723</v>
+        <v>15.531025767671</v>
       </c>
       <c r="C17">
-        <v>7.111151385671673</v>
+        <v>8.526025801755628</v>
       </c>
       <c r="D17">
-        <v>5.466105427534513</v>
+        <v>7.863848882916423</v>
       </c>
       <c r="E17">
-        <v>7.760853987322649</v>
+        <v>13.11883862131261</v>
       </c>
       <c r="F17">
-        <v>26.16251132691032</v>
+        <v>39.00126896635681</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.021614628089778</v>
+        <v>10.41848757964256</v>
       </c>
       <c r="K17">
-        <v>12.31748682615249</v>
+        <v>11.57350813464904</v>
       </c>
       <c r="L17">
-        <v>6.524808887193901</v>
+        <v>10.7427884214318</v>
       </c>
       <c r="M17">
-        <v>11.06968315212292</v>
+        <v>15.93618786601277</v>
       </c>
       <c r="N17">
-        <v>13.69231821463414</v>
+        <v>21.95260990114662</v>
       </c>
       <c r="O17">
-        <v>19.32538763715894</v>
+        <v>30.13116840822898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.71696008966244</v>
+        <v>15.48731930791014</v>
       </c>
       <c r="C18">
-        <v>7.09193944887792</v>
+        <v>8.520437473154905</v>
       </c>
       <c r="D18">
-        <v>5.431098756198514</v>
+        <v>7.860394918275672</v>
       </c>
       <c r="E18">
-        <v>7.759227346110937</v>
+        <v>13.12326524847917</v>
       </c>
       <c r="F18">
-        <v>26.10941952411892</v>
+        <v>39.01463283611648</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.032323258245261</v>
+        <v>10.42230252295592</v>
       </c>
       <c r="K18">
-        <v>12.17109869282276</v>
+        <v>11.54120579832069</v>
       </c>
       <c r="L18">
-        <v>6.506119576819747</v>
+        <v>10.7435310379164</v>
       </c>
       <c r="M18">
-        <v>10.99763312364277</v>
+        <v>15.92908395670647</v>
       </c>
       <c r="N18">
-        <v>13.74313103493889</v>
+        <v>21.96671348731489</v>
       </c>
       <c r="O18">
-        <v>19.31662959279588</v>
+        <v>30.14620930418271</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65628135502321</v>
+        <v>15.47253611254309</v>
       </c>
       <c r="C19">
-        <v>7.085427609257465</v>
+        <v>8.518542715817725</v>
       </c>
       <c r="D19">
-        <v>5.419226169252318</v>
+        <v>7.859241203193368</v>
       </c>
       <c r="E19">
-        <v>7.758724121807911</v>
+        <v>13.12478517859273</v>
       </c>
       <c r="F19">
-        <v>26.09175794252542</v>
+        <v>39.01927345713802</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.035964185330362</v>
+        <v>10.42360361874854</v>
       </c>
       <c r="K19">
-        <v>12.12115874972829</v>
+        <v>11.53027697551959</v>
       </c>
       <c r="L19">
-        <v>6.499816783748044</v>
+        <v>10.74380034546471</v>
       </c>
       <c r="M19">
-        <v>10.97319868233852</v>
+        <v>15.92671116951384</v>
       </c>
       <c r="N19">
-        <v>13.76037413029125</v>
+        <v>21.97151776514185</v>
       </c>
       <c r="O19">
-        <v>19.31390846119303</v>
+        <v>30.15138346686859</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.92786312173466</v>
+        <v>15.53912169315856</v>
       </c>
       <c r="C20">
-        <v>7.114703723612535</v>
+        <v>8.527058811017977</v>
       </c>
       <c r="D20">
-        <v>5.472574654894311</v>
+        <v>7.864495593578555</v>
       </c>
       <c r="E20">
-        <v>7.761177685828089</v>
+        <v>13.11802939452996</v>
       </c>
       <c r="F20">
-        <v>26.17248729236437</v>
+        <v>38.99885064154706</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.019639884417503</v>
+        <v>10.41778599194037</v>
       </c>
       <c r="K20">
-        <v>12.34440181044008</v>
+        <v>11.5794902392584</v>
       </c>
       <c r="L20">
-        <v>6.528279702915523</v>
+        <v>10.74265946226693</v>
       </c>
       <c r="M20">
-        <v>11.08299870802447</v>
+        <v>15.93751803246243</v>
       </c>
       <c r="N20">
-        <v>13.68293212650122</v>
+        <v>21.95001343257706</v>
       </c>
       <c r="O20">
-        <v>19.32712526863016</v>
+        <v>30.12842342647603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.8142224787005</v>
+        <v>15.76369923798956</v>
       </c>
       <c r="C21">
-        <v>7.212561731995351</v>
+        <v>8.555482636939516</v>
       </c>
       <c r="D21">
-        <v>5.650282274394653</v>
+        <v>7.883234514220745</v>
       </c>
       <c r="E21">
-        <v>7.772768697768632</v>
+        <v>13.09679987875776</v>
       </c>
       <c r="F21">
-        <v>26.46591087455488</v>
+        <v>38.93829205702276</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.965834285930481</v>
+        <v>10.39889341540593</v>
       </c>
       <c r="K21">
-        <v>13.06845235601293</v>
+        <v>11.74527482557365</v>
       </c>
       <c r="L21">
-        <v>6.62561284011207</v>
+        <v>10.74006576935139</v>
       </c>
       <c r="M21">
-        <v>11.4488653865511</v>
+        <v>15.97606645850604</v>
       </c>
       <c r="N21">
-        <v>13.42532147341789</v>
+        <v>21.87977743390694</v>
       </c>
       <c r="O21">
-        <v>19.38895672338032</v>
+        <v>30.05695719989134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37381528525586</v>
+        <v>15.91089353748763</v>
       </c>
       <c r="C22">
-        <v>7.276120976754502</v>
+        <v>8.573912333319793</v>
       </c>
       <c r="D22">
-        <v>5.765113854405634</v>
+        <v>7.896278062267606</v>
       </c>
       <c r="E22">
-        <v>7.782887344311082</v>
+        <v>13.084017277325</v>
       </c>
       <c r="F22">
-        <v>26.67456771798585</v>
+        <v>38.90472009127937</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.931429614336981</v>
+        <v>10.38703153230924</v>
       </c>
       <c r="K22">
-        <v>13.52240106255462</v>
+        <v>11.85379078331015</v>
       </c>
       <c r="L22">
-        <v>6.690442915665551</v>
+        <v>10.73929008997693</v>
       </c>
       <c r="M22">
-        <v>11.68538347672145</v>
+        <v>16.00290423633161</v>
       </c>
       <c r="N22">
-        <v>13.25874809661552</v>
+        <v>21.83537061650434</v>
       </c>
       <c r="O22">
-        <v>19.4428684359155</v>
+        <v>30.0144823433642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.07696410664133</v>
+        <v>15.83230881152288</v>
       </c>
       <c r="C23">
-        <v>7.242235668352826</v>
+        <v>8.564089886189681</v>
       </c>
       <c r="D23">
-        <v>5.703956102569371</v>
+        <v>7.889244376313422</v>
       </c>
       <c r="E23">
-        <v>7.777251009018095</v>
+        <v>13.09073984131761</v>
       </c>
       <c r="F23">
-        <v>26.56163650423724</v>
+        <v>38.92208853217473</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.949723509022032</v>
+        <v>10.39331813472499</v>
       </c>
       <c r="K23">
-        <v>13.28187355972759</v>
+        <v>11.79586863825745</v>
       </c>
       <c r="L23">
-        <v>6.655733761747198</v>
+        <v>10.73962024239197</v>
       </c>
       <c r="M23">
-        <v>11.55940673931195</v>
+        <v>15.98843157849131</v>
       </c>
       <c r="N23">
-        <v>13.34749661694477</v>
+        <v>21.85893481425629</v>
       </c>
       <c r="O23">
-        <v>19.41282637617065</v>
+        <v>30.03676460190017</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.91304671148941</v>
+        <v>15.53546133439729</v>
       </c>
       <c r="C24">
-        <v>7.113097867794617</v>
+        <v>8.526591843916858</v>
       </c>
       <c r="D24">
-        <v>5.469650344543316</v>
+        <v>7.864202936336789</v>
       </c>
       <c r="E24">
-        <v>7.761030477995535</v>
+        <v>13.11839485656883</v>
       </c>
       <c r="F24">
-        <v>26.16797149931988</v>
+        <v>38.99994184722024</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.020532377417888</v>
+        <v>10.41810300374071</v>
       </c>
       <c r="K24">
-        <v>12.33224054734699</v>
+        <v>11.57678564151819</v>
       </c>
       <c r="L24">
-        <v>6.526710123457886</v>
+        <v>10.74271744010079</v>
       </c>
       <c r="M24">
-        <v>11.07697959664343</v>
+        <v>15.9369160877023</v>
       </c>
       <c r="N24">
-        <v>13.68717481492723</v>
+        <v>21.95118675012449</v>
       </c>
       <c r="O24">
-        <v>19.32633522356688</v>
+        <v>30.12966293254657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.57472421134595</v>
+        <v>15.2184985660242</v>
       </c>
       <c r="C25">
-        <v>6.972233140713962</v>
+        <v>8.485551925347144</v>
       </c>
       <c r="D25">
-        <v>5.212403119213579</v>
+        <v>7.84068793842849</v>
       </c>
       <c r="E25">
-        <v>7.754139398455544</v>
+        <v>13.1529318681037</v>
       </c>
       <c r="F25">
-        <v>25.81348403344796</v>
+        <v>39.10970493415697</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.100279087904415</v>
+        <v>10.44693385594804</v>
       </c>
       <c r="K25">
-        <v>11.22441811342609</v>
+        <v>11.34220918585575</v>
       </c>
       <c r="L25">
-        <v>6.393093273115371</v>
+        <v>10.75003368283882</v>
       </c>
       <c r="M25">
-        <v>10.54765835331314</v>
+        <v>15.88856272663745</v>
       </c>
       <c r="N25">
-        <v>14.06212122203396</v>
+        <v>22.05715827457752</v>
       </c>
       <c r="O25">
-        <v>19.28766963315775</v>
+        <v>30.24802790656679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.98943825577132</v>
+        <v>13.52074896905344</v>
       </c>
       <c r="C2">
-        <v>8.454860364875108</v>
+        <v>6.867314499331973</v>
       </c>
       <c r="D2">
-        <v>7.826453265643561</v>
+        <v>5.020463401636573</v>
       </c>
       <c r="E2">
-        <v>13.18243162950818</v>
+        <v>7.757832919525913</v>
       </c>
       <c r="F2">
-        <v>39.21268724597822</v>
+        <v>25.60982630147084</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.46998192983836</v>
+        <v>6.162014128103042</v>
       </c>
       <c r="K2">
-        <v>11.17209005334947</v>
+        <v>10.33608715764755</v>
       </c>
       <c r="L2">
-        <v>10.75886745923918</v>
+        <v>6.299822395651734</v>
       </c>
       <c r="M2">
-        <v>15.85931230122848</v>
+        <v>10.15291187533627</v>
       </c>
       <c r="N2">
-        <v>22.14080014276757</v>
+        <v>14.34649419600306</v>
       </c>
       <c r="O2">
-        <v>30.35078949967882</v>
+        <v>19.30245716506974</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.83767363624774</v>
+        <v>12.76581492992728</v>
       </c>
       <c r="C3">
-        <v>8.433782680159677</v>
+        <v>6.795550340522713</v>
       </c>
       <c r="D3">
-        <v>7.818760874871302</v>
+        <v>4.889586361882543</v>
       </c>
       <c r="E3">
-        <v>13.20497416956307</v>
+        <v>7.765626775150471</v>
       </c>
       <c r="F3">
-        <v>39.29629240620887</v>
+        <v>25.50590803397054</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.48674579404068</v>
+        <v>6.205793426969873</v>
       </c>
       <c r="K3">
-        <v>11.05898004020352</v>
+        <v>9.688460239930672</v>
       </c>
       <c r="L3">
-        <v>10.76701763653766</v>
+        <v>6.239960404464998</v>
       </c>
       <c r="M3">
-        <v>15.84351969159543</v>
+        <v>9.883828076610051</v>
       </c>
       <c r="N3">
-        <v>22.2010166238085</v>
+        <v>14.54483736042072</v>
       </c>
       <c r="O3">
-        <v>30.4301639208446</v>
+        <v>19.33758714171495</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.74646009688573</v>
+        <v>12.28324311589494</v>
       </c>
       <c r="C4">
-        <v>8.4207100879427</v>
+        <v>6.751194915570749</v>
       </c>
       <c r="D4">
-        <v>7.815012378423155</v>
+        <v>4.809121524125869</v>
       </c>
       <c r="E4">
-        <v>13.22007704451477</v>
+        <v>7.772962614433694</v>
       </c>
       <c r="F4">
-        <v>39.3544338406386</v>
+        <v>25.45831710392568</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.49760597704258</v>
+        <v>6.233649935739032</v>
       </c>
       <c r="K4">
-        <v>10.99079257564639</v>
+        <v>9.268287930214811</v>
       </c>
       <c r="L4">
-        <v>10.77309331754179</v>
+        <v>6.204906646421179</v>
       </c>
       <c r="M4">
-        <v>15.8358324600591</v>
+        <v>9.718419665731233</v>
       </c>
       <c r="N4">
-        <v>22.23974107025943</v>
+        <v>14.66953043844784</v>
       </c>
       <c r="O4">
-        <v>30.48369821669938</v>
+        <v>19.37092202669336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.70982404545595</v>
+        <v>12.08199524841375</v>
       </c>
       <c r="C5">
-        <v>8.415351013580509</v>
+        <v>6.733051877165954</v>
       </c>
       <c r="D5">
-        <v>7.813731502843487</v>
+        <v>4.776350828073792</v>
       </c>
       <c r="E5">
-        <v>13.22654939544054</v>
+        <v>7.776584606142639</v>
       </c>
       <c r="F5">
-        <v>39.37983782280898</v>
+        <v>25.44290647209357</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50217458702363</v>
+        <v>6.245249648527376</v>
       </c>
       <c r="K5">
-        <v>10.96335117137787</v>
+        <v>9.091403159178759</v>
       </c>
       <c r="L5">
-        <v>10.77583929229319</v>
+        <v>6.191057098059489</v>
       </c>
       <c r="M5">
-        <v>15.83320834543768</v>
+        <v>9.651059627715716</v>
       </c>
       <c r="N5">
-        <v>22.25596323037436</v>
+        <v>14.72109447052256</v>
       </c>
       <c r="O5">
-        <v>30.50672002068924</v>
+        <v>19.38737334329383</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.70377403356782</v>
+        <v>12.04830700361754</v>
       </c>
       <c r="C6">
-        <v>8.414459246676701</v>
+        <v>6.730035307885183</v>
       </c>
       <c r="D6">
-        <v>7.813533756555787</v>
+        <v>4.770911828497237</v>
       </c>
       <c r="E6">
-        <v>13.22764333519221</v>
+        <v>7.777223985079364</v>
       </c>
       <c r="F6">
-        <v>39.38415943619483</v>
+        <v>25.44058525812896</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.50294184953439</v>
+        <v>6.247190822452358</v>
       </c>
       <c r="K6">
-        <v>10.95881622507057</v>
+        <v>9.061689918735619</v>
       </c>
       <c r="L6">
-        <v>10.77631159062848</v>
+        <v>6.188783869306969</v>
       </c>
       <c r="M6">
-        <v>15.83280341377083</v>
+        <v>9.639880069155671</v>
       </c>
       <c r="N6">
-        <v>22.25868361835613</v>
+        <v>14.72970251312243</v>
       </c>
       <c r="O6">
-        <v>30.51061560999858</v>
+        <v>19.39027558110808</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.74596379689704</v>
+        <v>12.28054734290978</v>
       </c>
       <c r="C7">
-        <v>8.420637941376651</v>
+        <v>6.750950499426846</v>
       </c>
       <c r="D7">
-        <v>7.814994103327525</v>
+        <v>4.808679426486319</v>
       </c>
       <c r="E7">
-        <v>13.2201630453829</v>
+        <v>7.773008912152625</v>
       </c>
       <c r="F7">
-        <v>39.35476952174234</v>
+        <v>25.4580932718579</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.49766701139809</v>
+        <v>6.233805366167526</v>
       </c>
       <c r="K7">
-        <v>10.99042105556567</v>
+        <v>9.265925311835035</v>
       </c>
       <c r="L7">
-        <v>10.77312925629354</v>
+        <v>6.204718095679654</v>
       </c>
       <c r="M7">
-        <v>15.83579500741014</v>
+        <v>9.717510915823707</v>
       </c>
       <c r="N7">
-        <v>22.2399580581567</v>
+        <v>14.67022278533811</v>
       </c>
       <c r="O7">
-        <v>30.48400381370375</v>
+        <v>19.37113240626606</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.93672432002265</v>
+        <v>13.26450233093825</v>
       </c>
       <c r="C8">
-        <v>8.447620531385494</v>
+        <v>6.842634079895858</v>
       </c>
       <c r="D8">
-        <v>7.823599616680181</v>
+        <v>4.975385941300244</v>
       </c>
       <c r="E8">
-        <v>13.18994277144606</v>
+        <v>7.759985660417811</v>
       </c>
       <c r="F8">
-        <v>39.24010089852858</v>
+        <v>25.57057455643788</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.47564464598139</v>
+        <v>6.176908267120984</v>
       </c>
       <c r="K8">
-        <v>11.13284469143176</v>
+        <v>10.11746039606973</v>
       </c>
       <c r="L8">
-        <v>10.76145566860045</v>
+        <v>6.278833324613263</v>
       </c>
       <c r="M8">
-        <v>15.85345191713099</v>
+        <v>10.0602256754693</v>
       </c>
       <c r="N8">
-        <v>22.16120006803234</v>
+        <v>14.41429070452989</v>
       </c>
       <c r="O8">
-        <v>30.37716174986309</v>
+        <v>19.31207302651251</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.32470085877999</v>
+        <v>15.03641440010436</v>
       </c>
       <c r="C9">
-        <v>8.499452317396232</v>
+        <v>7.019881102295304</v>
       </c>
       <c r="D9">
-        <v>7.848135364505056</v>
+        <v>5.299547040256291</v>
       </c>
       <c r="E9">
-        <v>13.14066723275279</v>
+        <v>7.75507507818938</v>
       </c>
       <c r="F9">
-        <v>39.06928683177451</v>
+        <v>25.92377555612837</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43694055117991</v>
+        <v>6.072955410117915</v>
       </c>
       <c r="K9">
-        <v>11.42089747315581</v>
+        <v>11.60882630625009</v>
       </c>
       <c r="L9">
-        <v>10.74703558540002</v>
+        <v>6.437330552483552</v>
       </c>
       <c r="M9">
-        <v>15.90387347449309</v>
+        <v>10.72693259150068</v>
       </c>
       <c r="N9">
-        <v>22.02059308063252</v>
+        <v>13.93459151292523</v>
       </c>
       <c r="O9">
-        <v>30.20573099641377</v>
+        <v>19.29372503034472</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.61584971034157</v>
+        <v>16.23557081767096</v>
       </c>
       <c r="C10">
-        <v>8.536817980687825</v>
+        <v>7.148278530231836</v>
       </c>
       <c r="D10">
-        <v>7.870728217622279</v>
+        <v>5.533658967734253</v>
       </c>
       <c r="E10">
-        <v>13.11051928720114</v>
+        <v>7.764581967448141</v>
       </c>
       <c r="F10">
-        <v>38.97678120092618</v>
+        <v>26.26917191121559</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.41121161155599</v>
+        <v>6.001053941058642</v>
       </c>
       <c r="K10">
-        <v>11.63616428011431</v>
+        <v>12.59651803019627</v>
       </c>
       <c r="L10">
-        <v>10.74156529659041</v>
+        <v>6.561308770218824</v>
       </c>
       <c r="M10">
-        <v>15.95033816151686</v>
+        <v>11.20873940169655</v>
       </c>
       <c r="N10">
-        <v>21.92564140667564</v>
+        <v>13.59435185510379</v>
       </c>
       <c r="O10">
-        <v>30.10301880039655</v>
+        <v>19.34533765906287</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.7491178999304</v>
+        <v>16.75793143919514</v>
       </c>
       <c r="C11">
-        <v>8.553649251027885</v>
+        <v>7.206243402082296</v>
       </c>
       <c r="D11">
-        <v>7.881973576386063</v>
+        <v>5.638840152854784</v>
       </c>
       <c r="E11">
-        <v>13.09811181105012</v>
+        <v>7.771870390638464</v>
       </c>
       <c r="F11">
-        <v>38.94186606478449</v>
+        <v>26.44592028900957</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.4000892928218</v>
+        <v>5.969276156019741</v>
       </c>
       <c r="K11">
-        <v>11.73451927196706</v>
+        <v>13.02266028365525</v>
       </c>
       <c r="L11">
-        <v>10.74018015489201</v>
+        <v>6.619233787624429</v>
       </c>
       <c r="M11">
-        <v>15.97347222784692</v>
+        <v>11.42530261352876</v>
       </c>
       <c r="N11">
-        <v>21.88424128782863</v>
+        <v>13.44190707090612</v>
       </c>
       <c r="O11">
-        <v>30.06134145885405</v>
+        <v>19.38417388372854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.79965906265242</v>
+        <v>16.95236123021673</v>
       </c>
       <c r="C12">
-        <v>8.559997775706563</v>
+        <v>7.22812564085449</v>
       </c>
       <c r="D12">
-        <v>7.886368809445937</v>
+        <v>5.678447369303862</v>
       </c>
       <c r="E12">
-        <v>13.09360077864878</v>
+        <v>7.775065932402021</v>
       </c>
       <c r="F12">
-        <v>38.92967499374423</v>
+        <v>26.51574334119541</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.39596083502762</v>
+        <v>5.95737331389501</v>
       </c>
       <c r="K12">
-        <v>11.77179507604473</v>
+        <v>13.18072445892642</v>
       </c>
       <c r="L12">
-        <v>10.73981344650792</v>
+        <v>6.641378344835165</v>
       </c>
       <c r="M12">
-        <v>15.98251507315575</v>
+        <v>11.50686921949249</v>
       </c>
       <c r="N12">
-        <v>21.8688207883532</v>
+        <v>13.38448890114884</v>
       </c>
       <c r="O12">
-        <v>30.04628526611083</v>
+        <v>19.40118870128987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.78877144490823</v>
+        <v>16.91063808675644</v>
       </c>
       <c r="C13">
-        <v>8.558631642775449</v>
+        <v>7.223415982017524</v>
       </c>
       <c r="D13">
-        <v>7.885416168297475</v>
+        <v>5.669927640363815</v>
       </c>
       <c r="E13">
-        <v>13.0945639836473</v>
+        <v>7.774358192991496</v>
       </c>
       <c r="F13">
-        <v>38.93225472780937</v>
+        <v>26.50057599866635</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.39684627207723</v>
+        <v>5.959931040735225</v>
       </c>
       <c r="K13">
-        <v>11.76376617638724</v>
+        <v>13.14682915386396</v>
       </c>
       <c r="L13">
-        <v>10.73988541865332</v>
+        <v>6.636599953064204</v>
       </c>
       <c r="M13">
-        <v>15.98055504857865</v>
+        <v>11.48932298027699</v>
       </c>
       <c r="N13">
-        <v>21.87213046424669</v>
+        <v>13.39684160160141</v>
       </c>
       <c r="O13">
-        <v>30.04949558752908</v>
+        <v>19.39741999926139</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75327468526613</v>
+        <v>16.77399519387093</v>
       </c>
       <c r="C14">
-        <v>8.554172057939205</v>
+        <v>7.208045046661213</v>
       </c>
       <c r="D14">
-        <v>7.88233244555116</v>
+        <v>5.642103302149548</v>
       </c>
       <c r="E14">
-        <v>13.09773693280484</v>
+        <v>7.772124506266262</v>
       </c>
       <c r="F14">
-        <v>38.94084244526817</v>
+        <v>26.45160632391858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.39974797421605</v>
+        <v>5.968294300409229</v>
       </c>
       <c r="K14">
-        <v>11.73758553045734</v>
+        <v>13.03573043812794</v>
       </c>
       <c r="L14">
-        <v>10.74014682767893</v>
+        <v>6.621051489402611</v>
       </c>
       <c r="M14">
-        <v>15.97421055462437</v>
+        <v>11.432022339051</v>
       </c>
       <c r="N14">
-        <v>21.88296749329284</v>
+        <v>13.43717719741311</v>
       </c>
       <c r="O14">
-        <v>30.06008822261166</v>
+        <v>19.38552686730231</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73154044598958</v>
+        <v>16.68985654184923</v>
       </c>
       <c r="C15">
-        <v>8.551437128511242</v>
+        <v>7.198620966675852</v>
       </c>
       <c r="D15">
-        <v>7.880461329338585</v>
+        <v>5.625030172572723</v>
       </c>
       <c r="E15">
-        <v>13.09970484612815</v>
+        <v>7.770813312791966</v>
       </c>
       <c r="F15">
-        <v>38.94623687298803</v>
+        <v>26.42198964043303</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.40153619120933</v>
+        <v>5.973433967787001</v>
       </c>
       <c r="K15">
-        <v>11.72155224599953</v>
+        <v>12.96724941930812</v>
       </c>
       <c r="L15">
-        <v>10.74032747479933</v>
+        <v>6.611554610268529</v>
       </c>
       <c r="M15">
-        <v>15.97036101242619</v>
+        <v>11.39686476478748</v>
       </c>
       <c r="N15">
-        <v>21.88963889961046</v>
+        <v>13.46192340695879</v>
       </c>
       <c r="O15">
-        <v>30.06667108829571</v>
+        <v>19.37854556571667</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6071532005185</v>
+        <v>16.2009630656168</v>
       </c>
       <c r="C16">
-        <v>8.535714566944696</v>
+        <v>7.144481106277764</v>
       </c>
       <c r="D16">
-        <v>7.870012586366229</v>
+        <v>5.52675570861878</v>
       </c>
       <c r="E16">
-        <v>13.11135639932392</v>
+        <v>7.764166091622485</v>
       </c>
       <c r="F16">
-        <v>38.97920719867742</v>
+        <v>26.25802201824541</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.41195016029251</v>
+        <v>6.003149156736132</v>
       </c>
       <c r="K16">
-        <v>11.62974254308157</v>
+        <v>12.56820451787554</v>
       </c>
       <c r="L16">
-        <v>10.74167794938631</v>
+        <v>6.557553105755531</v>
       </c>
       <c r="M16">
-        <v>15.9488660852755</v>
+        <v>11.19452815212818</v>
       </c>
       <c r="N16">
-        <v>21.92838300230257</v>
+        <v>13.60435921785652</v>
       </c>
       <c r="O16">
-        <v>30.10584410324226</v>
+        <v>19.343117202343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.531025767671</v>
+        <v>15.89507516897228</v>
       </c>
       <c r="C17">
-        <v>8.526025801755628</v>
+        <v>7.11115138567155</v>
       </c>
       <c r="D17">
-        <v>7.863848882916423</v>
+        <v>5.466105427534527</v>
       </c>
       <c r="E17">
-        <v>13.11883862131261</v>
+        <v>7.760853987322649</v>
       </c>
       <c r="F17">
-        <v>39.00126896635681</v>
+        <v>26.16251132691034</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.41848757964256</v>
+        <v>6.021614628089778</v>
       </c>
       <c r="K17">
-        <v>11.57350813464904</v>
+        <v>12.31748682615251</v>
       </c>
       <c r="L17">
-        <v>10.7427884214318</v>
+        <v>6.524808887193874</v>
       </c>
       <c r="M17">
-        <v>15.93618786601277</v>
+        <v>11.06968315212288</v>
       </c>
       <c r="N17">
-        <v>21.95260990114662</v>
+        <v>13.69231821463418</v>
       </c>
       <c r="O17">
-        <v>30.13116840822898</v>
+        <v>19.32538763715895</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.48731930791014</v>
+        <v>15.71696008966244</v>
       </c>
       <c r="C18">
-        <v>8.520437473154905</v>
+        <v>7.091939448878421</v>
       </c>
       <c r="D18">
-        <v>7.860394918275672</v>
+        <v>5.431098756198482</v>
       </c>
       <c r="E18">
-        <v>13.12326524847917</v>
+        <v>7.759227346110931</v>
       </c>
       <c r="F18">
-        <v>39.01463283611648</v>
+        <v>26.10941952411883</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.42230252295592</v>
+        <v>6.032323258245293</v>
       </c>
       <c r="K18">
-        <v>11.54120579832069</v>
+        <v>12.17109869282281</v>
       </c>
       <c r="L18">
-        <v>10.7435310379164</v>
+        <v>6.506119576819633</v>
       </c>
       <c r="M18">
-        <v>15.92908395670647</v>
+        <v>10.99763312364275</v>
       </c>
       <c r="N18">
-        <v>21.96671348731489</v>
+        <v>13.74313103493889</v>
       </c>
       <c r="O18">
-        <v>30.14620930418271</v>
+        <v>19.31662959279585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.47253611254309</v>
+        <v>15.65628135502322</v>
       </c>
       <c r="C19">
-        <v>8.518542715817725</v>
+        <v>7.085427609257482</v>
       </c>
       <c r="D19">
-        <v>7.859241203193368</v>
+        <v>5.419226169252137</v>
       </c>
       <c r="E19">
-        <v>13.12478517859273</v>
+        <v>7.758724121807738</v>
       </c>
       <c r="F19">
-        <v>39.01927345713802</v>
+        <v>26.09175794252518</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.42360361874854</v>
+        <v>6.035964185330298</v>
       </c>
       <c r="K19">
-        <v>11.53027697551959</v>
+        <v>12.12115874972829</v>
       </c>
       <c r="L19">
-        <v>10.74380034546471</v>
+        <v>6.499816783747907</v>
       </c>
       <c r="M19">
-        <v>15.92671116951384</v>
+        <v>10.97319868233847</v>
       </c>
       <c r="N19">
-        <v>21.97151776514185</v>
+        <v>13.76037413029108</v>
       </c>
       <c r="O19">
-        <v>30.15138346686859</v>
+        <v>19.31390846119287</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53912169315856</v>
+        <v>15.92786312173468</v>
       </c>
       <c r="C20">
-        <v>8.527058811017977</v>
+        <v>7.114703723612785</v>
       </c>
       <c r="D20">
-        <v>7.864495593578555</v>
+        <v>5.472574654894389</v>
       </c>
       <c r="E20">
-        <v>13.11802939452996</v>
+        <v>7.761177685828256</v>
       </c>
       <c r="F20">
-        <v>38.99885064154706</v>
+        <v>26.17248729236435</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.41778599194037</v>
+        <v>6.019639884417568</v>
       </c>
       <c r="K20">
-        <v>11.5794902392584</v>
+        <v>12.34440181044013</v>
       </c>
       <c r="L20">
-        <v>10.74265946226693</v>
+        <v>6.528279702915611</v>
       </c>
       <c r="M20">
-        <v>15.93751803246243</v>
+        <v>11.08299870802449</v>
       </c>
       <c r="N20">
-        <v>21.95001343257706</v>
+        <v>13.68293212650119</v>
       </c>
       <c r="O20">
-        <v>30.12842342647603</v>
+        <v>19.32712526863007</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76369923798956</v>
+        <v>16.81422247870049</v>
       </c>
       <c r="C21">
-        <v>8.555482636939516</v>
+        <v>7.212561731995239</v>
       </c>
       <c r="D21">
-        <v>7.883234514220745</v>
+        <v>5.650282274394695</v>
       </c>
       <c r="E21">
-        <v>13.09679987875776</v>
+        <v>7.77276869776857</v>
       </c>
       <c r="F21">
-        <v>38.93829205702276</v>
+        <v>26.46591087455475</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.39889341540593</v>
+        <v>5.965834285930478</v>
       </c>
       <c r="K21">
-        <v>11.74527482557365</v>
+        <v>13.06845235601297</v>
       </c>
       <c r="L21">
-        <v>10.74006576935139</v>
+        <v>6.625612840112101</v>
       </c>
       <c r="M21">
-        <v>15.97606645850604</v>
+        <v>11.44886538655105</v>
       </c>
       <c r="N21">
-        <v>21.87977743390694</v>
+        <v>13.42532147341783</v>
       </c>
       <c r="O21">
-        <v>30.05695719989134</v>
+        <v>19.38895672338018</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.91089353748763</v>
+        <v>17.37381528525588</v>
       </c>
       <c r="C22">
-        <v>8.573912333319793</v>
+        <v>7.276120976754608</v>
       </c>
       <c r="D22">
-        <v>7.896278062267606</v>
+        <v>5.765113854405654</v>
       </c>
       <c r="E22">
-        <v>13.084017277325</v>
+        <v>7.782887344311082</v>
       </c>
       <c r="F22">
-        <v>38.90472009127937</v>
+        <v>26.6745677179859</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.38703153230924</v>
+        <v>5.931429614336952</v>
       </c>
       <c r="K22">
-        <v>11.85379078331015</v>
+        <v>13.52240106255464</v>
       </c>
       <c r="L22">
-        <v>10.73929008997693</v>
+        <v>6.690442915665548</v>
       </c>
       <c r="M22">
-        <v>16.00290423633161</v>
+        <v>11.68538347672144</v>
       </c>
       <c r="N22">
-        <v>21.83537061650434</v>
+        <v>13.25874809661562</v>
       </c>
       <c r="O22">
-        <v>30.0144823433642</v>
+        <v>19.4428684359155</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83230881152288</v>
+        <v>17.07696410664134</v>
       </c>
       <c r="C23">
-        <v>8.564089886189681</v>
+        <v>7.242235668352939</v>
       </c>
       <c r="D23">
-        <v>7.889244376313422</v>
+        <v>5.703956102569304</v>
       </c>
       <c r="E23">
-        <v>13.09073984131761</v>
+        <v>7.777251009018034</v>
       </c>
       <c r="F23">
-        <v>38.92208853217473</v>
+        <v>26.56163650423715</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.39331813472499</v>
+        <v>5.949723509021993</v>
       </c>
       <c r="K23">
-        <v>11.79586863825745</v>
+        <v>13.2818735597276</v>
       </c>
       <c r="L23">
-        <v>10.73962024239197</v>
+        <v>6.655733761747102</v>
       </c>
       <c r="M23">
-        <v>15.98843157849131</v>
+        <v>11.55940673931193</v>
       </c>
       <c r="N23">
-        <v>21.85893481425629</v>
+        <v>13.34749661694474</v>
       </c>
       <c r="O23">
-        <v>30.03676460190017</v>
+        <v>19.41282637617059</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53546133439729</v>
+        <v>15.91304671148939</v>
       </c>
       <c r="C24">
-        <v>8.526591843916858</v>
+        <v>7.113097867794753</v>
       </c>
       <c r="D24">
-        <v>7.864202936336789</v>
+        <v>5.469650344543312</v>
       </c>
       <c r="E24">
-        <v>13.11839485656883</v>
+        <v>7.761030477995592</v>
       </c>
       <c r="F24">
-        <v>38.99994184722024</v>
+        <v>26.16797149931984</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.41810300374071</v>
+        <v>6.020532377417953</v>
       </c>
       <c r="K24">
-        <v>11.57678564151819</v>
+        <v>12.33224054734701</v>
       </c>
       <c r="L24">
-        <v>10.74271744010079</v>
+        <v>6.526710123457899</v>
       </c>
       <c r="M24">
-        <v>15.9369160877023</v>
+        <v>11.07697959664343</v>
       </c>
       <c r="N24">
-        <v>21.95118675012449</v>
+        <v>13.68717481492723</v>
       </c>
       <c r="O24">
-        <v>30.12966293254657</v>
+        <v>19.32633522356683</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.2184985660242</v>
+        <v>14.57472421134593</v>
       </c>
       <c r="C25">
-        <v>8.485551925347144</v>
+        <v>6.972233140714088</v>
       </c>
       <c r="D25">
-        <v>7.84068793842849</v>
+        <v>5.212403119213619</v>
       </c>
       <c r="E25">
-        <v>13.1529318681037</v>
+        <v>7.754139398455667</v>
       </c>
       <c r="F25">
-        <v>39.10970493415697</v>
+        <v>25.8134840334479</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.44693385594804</v>
+        <v>6.100279087904478</v>
       </c>
       <c r="K25">
-        <v>11.34220918585575</v>
+        <v>11.2244181134261</v>
       </c>
       <c r="L25">
-        <v>10.75003368283882</v>
+        <v>6.393093273115419</v>
       </c>
       <c r="M25">
-        <v>15.88856272663745</v>
+        <v>10.54765835331317</v>
       </c>
       <c r="N25">
-        <v>22.05715827457752</v>
+        <v>14.06212122203392</v>
       </c>
       <c r="O25">
-        <v>30.24802790656679</v>
+        <v>19.28766963315769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52074896905344</v>
+        <v>21.0149806226188</v>
       </c>
       <c r="C2">
-        <v>6.867314499331973</v>
+        <v>13.33312020214726</v>
       </c>
       <c r="D2">
-        <v>5.020463401636573</v>
+        <v>4.903386687058807</v>
       </c>
       <c r="E2">
-        <v>7.757832919525913</v>
+        <v>7.654617490820925</v>
       </c>
       <c r="F2">
-        <v>25.60982630147084</v>
+        <v>22.64205675104058</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2.879924913985687</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.438699209989833</v>
       </c>
       <c r="J2">
-        <v>6.162014128103042</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>10.33608715764755</v>
+        <v>15.8035067934199</v>
       </c>
       <c r="L2">
-        <v>6.299822395651734</v>
+        <v>6.2029494205662</v>
       </c>
       <c r="M2">
-        <v>10.15291187533627</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.34649419600306</v>
+        <v>6.995299503293404</v>
       </c>
       <c r="O2">
-        <v>19.30245716506974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.10372364211329</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.95748269464215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76581492992728</v>
+        <v>19.6332077357327</v>
       </c>
       <c r="C3">
-        <v>6.795550340522713</v>
+        <v>12.64438129611316</v>
       </c>
       <c r="D3">
-        <v>4.889586361882543</v>
+        <v>4.817217576946956</v>
       </c>
       <c r="E3">
-        <v>7.765626775150471</v>
+        <v>7.608304305275859</v>
       </c>
       <c r="F3">
-        <v>25.50590803397054</v>
+        <v>22.47086010648769</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.090607837837795</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.607940501923721</v>
       </c>
       <c r="J3">
-        <v>6.205793426969873</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>9.688460239930672</v>
+        <v>15.98513424116069</v>
       </c>
       <c r="L3">
-        <v>6.239960404464998</v>
+        <v>6.167906578439661</v>
       </c>
       <c r="M3">
-        <v>9.883828076610051</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.54483736042072</v>
+        <v>6.81355567374327</v>
       </c>
       <c r="O3">
-        <v>19.33758714171495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.45028281849973</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.9229094277938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28324311589494</v>
+        <v>18.7423747433953</v>
       </c>
       <c r="C4">
-        <v>6.751194915570749</v>
+        <v>12.2042930333589</v>
       </c>
       <c r="D4">
-        <v>4.809121524125869</v>
+        <v>4.764272839718843</v>
       </c>
       <c r="E4">
-        <v>7.772962614433694</v>
+        <v>7.578905403267912</v>
       </c>
       <c r="F4">
-        <v>25.45831710392568</v>
+        <v>22.3747586929946</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.224518648136734</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.716155756875673</v>
       </c>
       <c r="J4">
-        <v>6.233649935739032</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>9.268287930214811</v>
+        <v>16.10172151441874</v>
       </c>
       <c r="L4">
-        <v>6.204906646421179</v>
+        <v>6.145557218242631</v>
       </c>
       <c r="M4">
-        <v>9.718419665731233</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.66953043844784</v>
+        <v>6.700293428660826</v>
       </c>
       <c r="O4">
-        <v>19.37092202669336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.03196933730553</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.90929028618546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08199524841375</v>
+        <v>18.36628528536995</v>
       </c>
       <c r="C5">
-        <v>6.733051877165954</v>
+        <v>12.02967534588869</v>
       </c>
       <c r="D5">
-        <v>4.776350828073792</v>
+        <v>4.743333547816708</v>
       </c>
       <c r="E5">
-        <v>7.776584606142639</v>
+        <v>7.566100590357956</v>
       </c>
       <c r="F5">
-        <v>25.44290647209357</v>
+        <v>22.32893978308762</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.280537923809133</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.76386507605023</v>
       </c>
       <c r="J5">
-        <v>6.245249648527376</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.091403159178759</v>
+        <v>16.14499444252003</v>
       </c>
       <c r="L5">
-        <v>6.191057098059489</v>
+        <v>6.136099466313119</v>
       </c>
       <c r="M5">
-        <v>9.651059627715716</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.72109447052256</v>
+        <v>6.655273409569999</v>
       </c>
       <c r="O5">
-        <v>19.38737334329383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.85863269316437</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.89893990317855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04830700361754</v>
+        <v>18.30269382492595</v>
       </c>
       <c r="C6">
-        <v>6.730035307885183</v>
+        <v>12.01138551906261</v>
       </c>
       <c r="D6">
-        <v>4.770911828497237</v>
+        <v>4.740629025458869</v>
       </c>
       <c r="E6">
-        <v>7.777223985079364</v>
+        <v>7.563256520138986</v>
       </c>
       <c r="F6">
-        <v>25.44058525812896</v>
+        <v>22.31058976660679</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.290261831712038</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.775080813685333</v>
       </c>
       <c r="J6">
-        <v>6.247190822452358</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.061689918735619</v>
+        <v>16.14556319528694</v>
       </c>
       <c r="L6">
-        <v>6.188783869306969</v>
+        <v>6.13435048063896</v>
       </c>
       <c r="M6">
-        <v>9.639880069155671</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.72970251312243</v>
+        <v>6.649628006302503</v>
       </c>
       <c r="O6">
-        <v>19.39027558110808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.83116571478756</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.88919127652142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28054734290978</v>
+        <v>18.73635102149226</v>
       </c>
       <c r="C7">
-        <v>6.750950499426846</v>
+        <v>12.23137711179548</v>
       </c>
       <c r="D7">
-        <v>4.808679426486319</v>
+        <v>4.766084784768497</v>
       </c>
       <c r="E7">
-        <v>7.773008912152625</v>
+        <v>7.576843278065831</v>
       </c>
       <c r="F7">
-        <v>25.4580932718579</v>
+        <v>22.34454082455266</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.226208605863713</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.725335724624032</v>
       </c>
       <c r="J7">
-        <v>6.233805366167526</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>9.265925311835035</v>
+        <v>16.08402762187377</v>
       </c>
       <c r="L7">
-        <v>6.204718095679654</v>
+        <v>6.145003465320563</v>
       </c>
       <c r="M7">
-        <v>9.717510915823707</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.67022278533811</v>
+        <v>6.704699003696795</v>
       </c>
       <c r="O7">
-        <v>19.37113240626606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.03382124183618</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.88696117654527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26450233093825</v>
+        <v>20.54495348443161</v>
       </c>
       <c r="C8">
-        <v>6.842634079895858</v>
+        <v>13.13601849973137</v>
       </c>
       <c r="D8">
-        <v>4.975385941300244</v>
+        <v>4.876405693523699</v>
       </c>
       <c r="E8">
-        <v>7.759985660417811</v>
+        <v>7.636465791716131</v>
       </c>
       <c r="F8">
-        <v>25.57057455643788</v>
+        <v>22.54256553342086</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2.952788973301274</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.50706201065065</v>
       </c>
       <c r="J8">
-        <v>6.176908267120984</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.11746039606973</v>
+        <v>15.84091262902121</v>
       </c>
       <c r="L8">
-        <v>6.278833324613263</v>
+        <v>6.190580662923272</v>
       </c>
       <c r="M8">
-        <v>10.0602256754693</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.41429070452989</v>
+        <v>6.939433487925791</v>
       </c>
       <c r="O8">
-        <v>19.31207302651251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.88718487393843</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.91487197384226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03641440010436</v>
+        <v>23.72413044606216</v>
       </c>
       <c r="C9">
-        <v>7.019881102295304</v>
+        <v>14.72180771060078</v>
       </c>
       <c r="D9">
-        <v>5.299547040256291</v>
+        <v>5.088162791514521</v>
       </c>
       <c r="E9">
-        <v>7.75507507818938</v>
+        <v>7.749224545655334</v>
       </c>
       <c r="F9">
-        <v>25.92377555612837</v>
+        <v>23.05551480651241</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.450406279461261</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.098635041979962</v>
       </c>
       <c r="J9">
-        <v>6.072955410117915</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>11.60882630625009</v>
+        <v>15.43857976674486</v>
       </c>
       <c r="L9">
-        <v>6.437330552483552</v>
+        <v>6.274086596242036</v>
       </c>
       <c r="M9">
-        <v>10.72693259150068</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.93459151292523</v>
+        <v>7.376135365699146</v>
       </c>
       <c r="O9">
-        <v>19.29372503034472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.4128546793745</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17.07167913546824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.23557081767096</v>
+        <v>25.81894302108476</v>
       </c>
       <c r="C10">
-        <v>7.148278530231836</v>
+        <v>15.85968354689866</v>
       </c>
       <c r="D10">
-        <v>5.533658967734253</v>
+        <v>5.220843638259807</v>
       </c>
       <c r="E10">
-        <v>7.764581967448141</v>
+        <v>7.80818452042686</v>
       </c>
       <c r="F10">
-        <v>26.26917191121559</v>
+        <v>23.31083092916052</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.129326967220813</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.828388008620883</v>
       </c>
       <c r="J10">
-        <v>6.001053941058642</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.59651803019627</v>
+        <v>15.08803696817112</v>
       </c>
       <c r="L10">
-        <v>6.561308770218824</v>
+        <v>6.338137841970378</v>
       </c>
       <c r="M10">
-        <v>11.20873940169655</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.59435185510379</v>
+        <v>7.62510902118149</v>
       </c>
       <c r="O10">
-        <v>19.34533765906287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.40144613805104</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17.11813614457462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75793143919514</v>
+        <v>26.80134457044627</v>
       </c>
       <c r="C11">
-        <v>7.206243402082296</v>
+        <v>16.82092834709457</v>
       </c>
       <c r="D11">
-        <v>5.638840152854784</v>
+        <v>5.091184195349766</v>
       </c>
       <c r="E11">
-        <v>7.771870390638464</v>
+        <v>7.755059065373611</v>
       </c>
       <c r="F11">
-        <v>26.44592028900957</v>
+        <v>22.07071547212403</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.995495429550635</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.7624329184602</v>
       </c>
       <c r="J11">
-        <v>5.969276156019741</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>13.02266028365525</v>
+        <v>14.29215262143384</v>
       </c>
       <c r="L11">
-        <v>6.619233787624429</v>
+        <v>6.470553461376767</v>
       </c>
       <c r="M11">
-        <v>11.42530261352876</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.44190707090612</v>
+        <v>7.209804777036312</v>
       </c>
       <c r="O11">
-        <v>19.38417388372854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.46924489011365</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.25415642131345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.95236123021673</v>
+        <v>27.20886582088109</v>
       </c>
       <c r="C12">
-        <v>7.22812564085449</v>
+        <v>17.37274686107289</v>
       </c>
       <c r="D12">
-        <v>5.678447369303862</v>
+        <v>4.951801459288411</v>
       </c>
       <c r="E12">
-        <v>7.775065932402021</v>
+        <v>7.817877146786607</v>
       </c>
       <c r="F12">
-        <v>26.51574334119541</v>
+        <v>21.00464051637948</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.303879928532734</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.742702839177565</v>
       </c>
       <c r="J12">
-        <v>5.95737331389501</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>13.18072445892642</v>
+        <v>13.75572943171195</v>
       </c>
       <c r="L12">
-        <v>6.641378344835165</v>
+        <v>6.62903329812208</v>
       </c>
       <c r="M12">
-        <v>11.50686921949249</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.38448890114884</v>
+        <v>6.810458121963135</v>
       </c>
       <c r="O12">
-        <v>19.40118870128987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.31116545989936</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.54333846873801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91063808675644</v>
+        <v>27.21114497329643</v>
       </c>
       <c r="C13">
-        <v>7.223415982017524</v>
+        <v>17.69347822291831</v>
       </c>
       <c r="D13">
-        <v>5.669927640363815</v>
+        <v>4.798562566628175</v>
       </c>
       <c r="E13">
-        <v>7.774358192991496</v>
+        <v>7.963976245272438</v>
       </c>
       <c r="F13">
-        <v>26.50057599866635</v>
+        <v>19.96059637993896</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.694347779046474</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.772392762758371</v>
       </c>
       <c r="J13">
-        <v>5.959931040735225</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>13.14682915386396</v>
+        <v>13.36697431652895</v>
       </c>
       <c r="L13">
-        <v>6.636599953064204</v>
+        <v>6.809881739943324</v>
       </c>
       <c r="M13">
-        <v>11.48932298027699</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.39684160160141</v>
+        <v>6.404608658432216</v>
       </c>
       <c r="O13">
-        <v>19.39741999926139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.97066712458443</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.87358995522983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77399519387093</v>
+        <v>27.02937842311083</v>
       </c>
       <c r="C14">
-        <v>7.208045046661213</v>
+        <v>17.8254219229805</v>
       </c>
       <c r="D14">
-        <v>5.642103302149548</v>
+        <v>4.685956824944701</v>
       </c>
       <c r="E14">
-        <v>7.772124506266262</v>
+        <v>8.114185718918655</v>
       </c>
       <c r="F14">
-        <v>26.45160632391858</v>
+        <v>19.23842344965077</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.690247330602928</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.818457092020781</v>
       </c>
       <c r="J14">
-        <v>5.968294300409229</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>13.03573043812794</v>
+        <v>13.17006720940886</v>
       </c>
       <c r="L14">
-        <v>6.621051489402611</v>
+        <v>6.950935787519493</v>
       </c>
       <c r="M14">
-        <v>11.432022339051</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.43717719741311</v>
+        <v>6.122354291991992</v>
       </c>
       <c r="O14">
-        <v>19.38552686730231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.64613294348202</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.42313596122891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68985654184923</v>
+        <v>26.89708881622537</v>
       </c>
       <c r="C15">
-        <v>7.198620966675852</v>
+        <v>17.81753676364001</v>
       </c>
       <c r="D15">
-        <v>5.625030172572723</v>
+        <v>4.656109999865034</v>
       </c>
       <c r="E15">
-        <v>7.770813312791966</v>
+        <v>8.152638972173547</v>
       </c>
       <c r="F15">
-        <v>26.42198964043303</v>
+        <v>19.06034972217222</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.923885347209358</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.84512111991269</v>
       </c>
       <c r="J15">
-        <v>5.973433967787001</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>12.96724941930812</v>
+        <v>13.1459576625837</v>
       </c>
       <c r="L15">
-        <v>6.611554610268529</v>
+        <v>6.982720245304995</v>
       </c>
       <c r="M15">
-        <v>11.39686476478748</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.46192340695879</v>
+        <v>6.052351272408123</v>
       </c>
       <c r="O15">
-        <v>19.37854556571667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.529155429768</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.31684452392395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.2009630656168</v>
+        <v>26.04632126051423</v>
       </c>
       <c r="C16">
-        <v>7.144481106277764</v>
+        <v>17.32379764205924</v>
       </c>
       <c r="D16">
-        <v>5.52675570861878</v>
+        <v>4.62939290180499</v>
       </c>
       <c r="E16">
-        <v>7.764166091622485</v>
+        <v>8.088938413759314</v>
       </c>
       <c r="F16">
-        <v>26.25802201824541</v>
+        <v>19.13676886856311</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.739989711825385</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.960273555846641</v>
       </c>
       <c r="J16">
-        <v>6.003149156736132</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.56820451787554</v>
+        <v>13.37584863419512</v>
       </c>
       <c r="L16">
-        <v>6.557553105755531</v>
+        <v>6.912776113215092</v>
       </c>
       <c r="M16">
-        <v>11.19452815212818</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.60435921785652</v>
+        <v>6.022323132117463</v>
       </c>
       <c r="O16">
-        <v>19.343117202343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.17106579658752</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.41851427512322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.89507516897228</v>
+        <v>25.47947163947289</v>
       </c>
       <c r="C17">
-        <v>7.11115138567155</v>
+        <v>16.86406536234546</v>
       </c>
       <c r="D17">
-        <v>5.466105427534527</v>
+        <v>4.669139847467414</v>
       </c>
       <c r="E17">
-        <v>7.760853987322649</v>
+        <v>7.951629899871477</v>
       </c>
       <c r="F17">
-        <v>26.16251132691034</v>
+        <v>19.57750223115909</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.042915384507898</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.024888293639888</v>
       </c>
       <c r="J17">
-        <v>6.021614628089778</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>12.31748682615251</v>
+        <v>13.64859169859531</v>
       </c>
       <c r="L17">
-        <v>6.524808887193874</v>
+        <v>6.779942515781591</v>
       </c>
       <c r="M17">
-        <v>11.06968315212288</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.69231821463418</v>
+        <v>6.148838588736678</v>
       </c>
       <c r="O17">
-        <v>19.32538763715895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.07235462503547</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.73338509597067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.71696008966244</v>
+        <v>25.10659168356633</v>
       </c>
       <c r="C18">
-        <v>7.091939448878421</v>
+        <v>16.36780970856325</v>
       </c>
       <c r="D18">
-        <v>5.431098756198482</v>
+        <v>4.770944621082085</v>
       </c>
       <c r="E18">
-        <v>7.759227346110931</v>
+        <v>7.786871490574293</v>
       </c>
       <c r="F18">
-        <v>26.10941952411883</v>
+        <v>20.40743550289389</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.863439467343898</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.041337513678561</v>
       </c>
       <c r="J18">
-        <v>6.032323258245293</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>12.17109869282281</v>
+        <v>14.02396561046829</v>
       </c>
       <c r="L18">
-        <v>6.506119576819633</v>
+        <v>6.601066989151715</v>
       </c>
       <c r="M18">
-        <v>10.99763312364275</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.74313103493889</v>
+        <v>6.433585897986036</v>
       </c>
       <c r="O18">
-        <v>19.31662959279585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.18468969582531</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.286680714742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65628135502322</v>
+        <v>24.92185394671213</v>
       </c>
       <c r="C19">
-        <v>7.085427609257482</v>
+        <v>15.93884678826492</v>
       </c>
       <c r="D19">
-        <v>5.419226169252137</v>
+        <v>4.920851680051653</v>
       </c>
       <c r="E19">
-        <v>7.758724121807738</v>
+        <v>7.693532973825371</v>
       </c>
       <c r="F19">
-        <v>26.09175794252518</v>
+        <v>21.45490209120236</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.512591655765999</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.034206637146086</v>
       </c>
       <c r="J19">
-        <v>6.035964185330298</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>12.12115874972829</v>
+        <v>14.46734734602766</v>
       </c>
       <c r="L19">
-        <v>6.499816783747907</v>
+        <v>6.439113673732995</v>
       </c>
       <c r="M19">
-        <v>10.97319868233847</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.76037413029108</v>
+        <v>6.846660371942883</v>
       </c>
       <c r="O19">
-        <v>19.31390846119287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.45964530719228</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.9655499999247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.92786312173468</v>
+        <v>25.28258146371357</v>
       </c>
       <c r="C20">
-        <v>7.114703723612785</v>
+        <v>15.64514290339411</v>
       </c>
       <c r="D20">
-        <v>5.472574654894389</v>
+        <v>5.191111456730123</v>
       </c>
       <c r="E20">
-        <v>7.761177685828256</v>
+        <v>7.787088253060414</v>
       </c>
       <c r="F20">
-        <v>26.17248729236435</v>
+        <v>23.1471559702972</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.214097218822062</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.928127151508411</v>
       </c>
       <c r="J20">
-        <v>6.019639884417568</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.34440181044013</v>
+        <v>15.11859700138578</v>
       </c>
       <c r="L20">
-        <v>6.528279702915611</v>
+        <v>6.321280363186584</v>
       </c>
       <c r="M20">
-        <v>11.08299870802449</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.68293212650119</v>
+        <v>7.571450542429464</v>
       </c>
       <c r="O20">
-        <v>19.32712526863007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.15623794749743</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>17.03230701423022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.81422247870049</v>
+        <v>26.79757412968165</v>
       </c>
       <c r="C21">
-        <v>7.212561731995239</v>
+        <v>16.39377766726789</v>
       </c>
       <c r="D21">
-        <v>5.650282274394695</v>
+        <v>5.325691226318312</v>
       </c>
       <c r="E21">
-        <v>7.77276869776857</v>
+        <v>7.862058940777178</v>
       </c>
       <c r="F21">
-        <v>26.46591087455475</v>
+        <v>23.61547010837225</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.93265414127892</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.715115276495619</v>
       </c>
       <c r="J21">
-        <v>5.965834285930478</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>13.06845235601297</v>
+        <v>14.98509615749355</v>
       </c>
       <c r="L21">
-        <v>6.625612840112101</v>
+        <v>6.359612581865232</v>
       </c>
       <c r="M21">
-        <v>11.44886538655105</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.42532147341783</v>
+        <v>7.852568324619613</v>
       </c>
       <c r="O21">
-        <v>19.38895672338018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.94785701078009</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.25155512107057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37381528525588</v>
+        <v>27.74971316344725</v>
       </c>
       <c r="C22">
-        <v>7.276120976754608</v>
+        <v>16.86303318842912</v>
       </c>
       <c r="D22">
-        <v>5.765113854405654</v>
+        <v>5.399246906826877</v>
       </c>
       <c r="E22">
-        <v>7.782887344311082</v>
+        <v>7.902687270044908</v>
       </c>
       <c r="F22">
-        <v>26.6745677179859</v>
+        <v>23.88655554310038</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.763997077784129</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.568950791481235</v>
       </c>
       <c r="J22">
-        <v>5.931429614336952</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>13.52240106255464</v>
+        <v>14.89025832282102</v>
       </c>
       <c r="L22">
-        <v>6.690442915665548</v>
+        <v>6.387514458847451</v>
       </c>
       <c r="M22">
-        <v>11.68538347672144</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.25874809661562</v>
+        <v>7.99593242697809</v>
       </c>
       <c r="O22">
-        <v>19.4428684359155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.42187212827328</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.37937999975277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.07696410664134</v>
+        <v>27.24685983510263</v>
       </c>
       <c r="C23">
-        <v>7.242235668352939</v>
+        <v>16.58700761990587</v>
       </c>
       <c r="D23">
-        <v>5.703956102569304</v>
+        <v>5.357806694159871</v>
       </c>
       <c r="E23">
-        <v>7.777251009018034</v>
+        <v>7.882876121644082</v>
       </c>
       <c r="F23">
-        <v>26.56163650423715</v>
+        <v>23.77318606373838</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.85289639110402</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.634528972434222</v>
       </c>
       <c r="J23">
-        <v>5.949723509021993</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>13.2818735597276</v>
+        <v>14.96188760217815</v>
       </c>
       <c r="L23">
-        <v>6.655733761747102</v>
+        <v>6.372828162206242</v>
       </c>
       <c r="M23">
-        <v>11.55940673931193</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.34749661694474</v>
+        <v>7.914552025373754</v>
       </c>
       <c r="O23">
-        <v>19.41282637617059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.16688464683444</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.33511008873273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.91304671148939</v>
+        <v>25.25122410119953</v>
       </c>
       <c r="C24">
-        <v>7.113097867794753</v>
+        <v>15.54942661710877</v>
       </c>
       <c r="D24">
-        <v>5.469650344543312</v>
+        <v>5.203323570609792</v>
       </c>
       <c r="E24">
-        <v>7.761030477995592</v>
+        <v>7.803936251423068</v>
       </c>
       <c r="F24">
-        <v>26.16797149931984</v>
+        <v>23.31184075281999</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.197495427824662</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.909705446604054</v>
       </c>
       <c r="J24">
-        <v>6.020532377417953</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.33224054734701</v>
+        <v>15.21183776588996</v>
       </c>
       <c r="L24">
-        <v>6.526710123457899</v>
+        <v>6.315833490476813</v>
       </c>
       <c r="M24">
-        <v>11.07697959664343</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.68717481492723</v>
+        <v>7.608944991590613</v>
       </c>
       <c r="O24">
-        <v>19.32633522356683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.17110288638514</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17.14655362975385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.57472421134593</v>
+        <v>22.90605479051658</v>
       </c>
       <c r="C25">
-        <v>6.972233140714088</v>
+        <v>14.35464415177276</v>
       </c>
       <c r="D25">
-        <v>5.212403119213619</v>
+        <v>5.034662848438478</v>
       </c>
       <c r="E25">
-        <v>7.754139398455667</v>
+        <v>7.716410283742994</v>
       </c>
       <c r="F25">
-        <v>25.8134840334479</v>
+        <v>22.85736187624035</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.584082656174509</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.221431682986584</v>
       </c>
       <c r="J25">
-        <v>6.100279087904478</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.2244181134261</v>
+        <v>15.5097724777807</v>
       </c>
       <c r="L25">
-        <v>6.393093273115419</v>
+        <v>6.251714162532722</v>
       </c>
       <c r="M25">
-        <v>10.54765835331317</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.06212122203392</v>
+        <v>7.268242903305898</v>
       </c>
       <c r="O25">
-        <v>19.28766963315769</v>
+        <v>14.0222505626553</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.98307617903756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0149806226188</v>
+        <v>21.06339301346759</v>
       </c>
       <c r="C2">
-        <v>13.33312020214726</v>
+        <v>13.54217319329361</v>
       </c>
       <c r="D2">
-        <v>4.903386687058807</v>
+        <v>4.995141072848407</v>
       </c>
       <c r="E2">
-        <v>7.654617490820925</v>
+        <v>7.645649763294424</v>
       </c>
       <c r="F2">
-        <v>22.64205675104058</v>
+        <v>21.90951687010594</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.879924913985687</v>
+        <v>2.740629604272991</v>
       </c>
       <c r="I2">
-        <v>3.438699209989833</v>
+        <v>3.262434068974907</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>15.8035067934199</v>
+        <v>15.12396189909798</v>
       </c>
       <c r="L2">
-        <v>6.2029494205662</v>
+        <v>12.27129927865502</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.06265667936137</v>
       </c>
       <c r="N2">
-        <v>6.995299503293404</v>
+        <v>6.175688645404382</v>
       </c>
       <c r="O2">
-        <v>13.10372364211329</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.187834532639966</v>
       </c>
       <c r="Q2">
-        <v>16.95748269464215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.15039787670724</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.3562350111655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6332077357327</v>
+        <v>19.68125621198628</v>
       </c>
       <c r="C3">
-        <v>12.64438129611316</v>
+        <v>12.75263204826087</v>
       </c>
       <c r="D3">
-        <v>4.817217576946956</v>
+        <v>4.907927234393186</v>
       </c>
       <c r="E3">
-        <v>7.608304305275859</v>
+        <v>7.605212703138699</v>
       </c>
       <c r="F3">
-        <v>22.47086010648769</v>
+        <v>21.79495882947873</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.090607837837795</v>
+        <v>2.939096026178948</v>
       </c>
       <c r="I3">
-        <v>3.607940501923721</v>
+        <v>3.41548117650523</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.98513424116069</v>
+        <v>15.33074905338551</v>
       </c>
       <c r="L3">
-        <v>6.167906578439661</v>
+        <v>12.46050989607816</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.2199585158077</v>
       </c>
       <c r="N3">
-        <v>6.81355567374327</v>
+        <v>6.139082342293292</v>
       </c>
       <c r="O3">
-        <v>12.45028281849973</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.003284349163685</v>
       </c>
       <c r="Q3">
-        <v>16.9229094277938</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.48315180058758</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.36235583226883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7423747433953</v>
+        <v>18.78013725176209</v>
       </c>
       <c r="C4">
-        <v>12.2042930333589</v>
+        <v>12.24674924652872</v>
       </c>
       <c r="D4">
-        <v>4.764272839718843</v>
+        <v>4.854496192517546</v>
       </c>
       <c r="E4">
-        <v>7.578905403267912</v>
+        <v>7.579536754968877</v>
       </c>
       <c r="F4">
-        <v>22.3747586929946</v>
+        <v>21.73247544289886</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.224518648136734</v>
+        <v>3.06527175586918</v>
       </c>
       <c r="I4">
-        <v>3.716155756875673</v>
+        <v>3.513622194537207</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>16.10172151441874</v>
+        <v>15.4616058100163</v>
       </c>
       <c r="L4">
-        <v>6.145557218242631</v>
+        <v>12.57962463361955</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.3339202502822</v>
       </c>
       <c r="N4">
-        <v>6.700293428660826</v>
+        <v>6.115875917713745</v>
       </c>
       <c r="O4">
-        <v>12.03196933730553</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.88866255941755</v>
       </c>
       <c r="Q4">
-        <v>16.90929028618546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.05557962648073</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.37260875700781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.36628528536995</v>
+        <v>18.39923837844896</v>
       </c>
       <c r="C5">
-        <v>12.02967534588869</v>
+        <v>12.04443045320392</v>
       </c>
       <c r="D5">
-        <v>4.743333547816708</v>
+        <v>4.833372107176515</v>
       </c>
       <c r="E5">
-        <v>7.566100590357956</v>
+        <v>7.568316421420702</v>
       </c>
       <c r="F5">
-        <v>22.32893978308762</v>
+        <v>21.70039681642564</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.280537923809133</v>
+        <v>3.118073483368107</v>
       </c>
       <c r="I5">
-        <v>3.76386507605023</v>
+        <v>3.557640499471727</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>16.14499444252003</v>
+        <v>15.51079486944997</v>
       </c>
       <c r="L5">
-        <v>6.136099466313119</v>
+        <v>12.62380911328309</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.38204600483543</v>
       </c>
       <c r="N5">
-        <v>6.655273409569999</v>
+        <v>6.106126806596433</v>
       </c>
       <c r="O5">
-        <v>11.85863269316437</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.843111890506699</v>
       </c>
       <c r="Q5">
-        <v>16.89893990317855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.8782327758806</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.37197989385195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30269382492595</v>
+        <v>18.33464638658739</v>
       </c>
       <c r="C6">
-        <v>12.01138551906261</v>
+        <v>12.0215753561062</v>
       </c>
       <c r="D6">
-        <v>4.740629025458869</v>
+        <v>4.830605480883614</v>
       </c>
       <c r="E6">
-        <v>7.563256520138986</v>
+        <v>7.56578409143154</v>
       </c>
       <c r="F6">
-        <v>22.31058976660679</v>
+        <v>21.68474037593699</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.290261831712038</v>
+        <v>3.127253392789711</v>
       </c>
       <c r="I6">
-        <v>3.775080813685333</v>
+        <v>3.568832855421272</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>16.14556319528694</v>
+        <v>15.51279949111089</v>
       </c>
       <c r="L6">
-        <v>6.13435048063896</v>
+        <v>12.62497297646248</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.3871606509718</v>
       </c>
       <c r="N6">
-        <v>6.649628006302503</v>
+        <v>6.10436985872898</v>
       </c>
       <c r="O6">
-        <v>11.83116571478756</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.837293959571451</v>
       </c>
       <c r="Q6">
-        <v>16.88919127652142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.85003650905172</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.36417117509094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73635102149226</v>
+        <v>18.7736069253158</v>
       </c>
       <c r="C7">
-        <v>12.23137711179548</v>
+        <v>12.27368369955849</v>
       </c>
       <c r="D7">
-        <v>4.766084784768497</v>
+        <v>4.856215282796604</v>
       </c>
       <c r="E7">
-        <v>7.576843278065831</v>
+        <v>7.577627613577667</v>
       </c>
       <c r="F7">
-        <v>22.34454082455266</v>
+        <v>21.70365378726655</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.226208605863713</v>
+        <v>3.066901458108092</v>
       </c>
       <c r="I7">
-        <v>3.725335724624032</v>
+        <v>3.524307432696016</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>16.08402762187377</v>
+        <v>15.44534756947361</v>
       </c>
       <c r="L7">
-        <v>6.145003465320563</v>
+        <v>12.56374347239084</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.32553482849272</v>
       </c>
       <c r="N7">
-        <v>6.704699003696795</v>
+        <v>6.115429027378729</v>
       </c>
       <c r="O7">
-        <v>12.03382124183618</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.892821493086474</v>
       </c>
       <c r="Q7">
-        <v>16.88696117654527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.05723865486605</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.35138057925921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54495348443161</v>
+        <v>20.59593164359442</v>
       </c>
       <c r="C8">
-        <v>13.13601849973137</v>
+        <v>13.31127972265624</v>
       </c>
       <c r="D8">
-        <v>4.876405693523699</v>
+        <v>4.967660103160805</v>
       </c>
       <c r="E8">
-        <v>7.636465791716131</v>
+        <v>7.629689496268208</v>
       </c>
       <c r="F8">
-        <v>22.54256553342086</v>
+        <v>21.8314893701133</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.952788973301274</v>
+        <v>2.809303184861972</v>
       </c>
       <c r="I8">
-        <v>3.50706201065065</v>
+        <v>3.327241598363533</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>15.84091262902121</v>
+        <v>15.17237797764453</v>
       </c>
       <c r="L8">
-        <v>6.190580662923272</v>
+        <v>12.31627300681669</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.09933012414563</v>
       </c>
       <c r="N8">
-        <v>6.939433487925791</v>
+        <v>6.162925707635925</v>
       </c>
       <c r="O8">
-        <v>12.88718487393843</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.130644994359034</v>
       </c>
       <c r="Q8">
-        <v>16.91487197384226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.92908480707581</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.32927748372813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72413044606216</v>
+        <v>23.75754211142363</v>
       </c>
       <c r="C9">
-        <v>14.72180771060078</v>
+        <v>15.12634196958855</v>
       </c>
       <c r="D9">
-        <v>5.088162791514521</v>
+        <v>5.182894840196696</v>
       </c>
       <c r="E9">
-        <v>7.749224545655334</v>
+        <v>7.728261893336284</v>
       </c>
       <c r="F9">
-        <v>23.05551480651241</v>
+        <v>22.19620103096887</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.450406279461261</v>
+        <v>2.336206812599093</v>
       </c>
       <c r="I9">
-        <v>3.098635041979962</v>
+        <v>2.956934849138771</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>15.43857976674486</v>
+        <v>14.69847784162078</v>
       </c>
       <c r="L9">
-        <v>6.274086596242036</v>
+        <v>11.87955308463101</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.819009858353851</v>
       </c>
       <c r="N9">
-        <v>7.376135365699146</v>
+        <v>6.250762911578084</v>
       </c>
       <c r="O9">
-        <v>14.4128546793745</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.576392409305403</v>
       </c>
       <c r="Q9">
-        <v>17.07167913546824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.48498875024357</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.37756414850683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.81894302108476</v>
+        <v>25.8407315959039</v>
       </c>
       <c r="C10">
-        <v>15.85968354689866</v>
+        <v>16.40247997115672</v>
       </c>
       <c r="D10">
-        <v>5.220843638259807</v>
+        <v>5.317420519331071</v>
       </c>
       <c r="E10">
-        <v>7.80818452042686</v>
+        <v>7.78060242227852</v>
       </c>
       <c r="F10">
-        <v>23.31083092916052</v>
+        <v>22.35565411807298</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.129326967220813</v>
+        <v>2.035773176186912</v>
       </c>
       <c r="I10">
-        <v>2.828388008620883</v>
+        <v>2.714935222778745</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>15.08803696817112</v>
+        <v>14.30363209433666</v>
       </c>
       <c r="L10">
-        <v>6.338137841970378</v>
+        <v>11.52510166570528</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.65149560182957</v>
       </c>
       <c r="N10">
-        <v>7.62510902118149</v>
+        <v>6.32068738909555</v>
       </c>
       <c r="O10">
-        <v>15.40144613805104</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.830572944644293</v>
       </c>
       <c r="Q10">
-        <v>17.11813614457462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.49010593701115</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.35284610880278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.80134457044627</v>
+        <v>26.82245513217993</v>
       </c>
       <c r="C11">
-        <v>16.82092834709457</v>
+        <v>17.32638057678762</v>
       </c>
       <c r="D11">
-        <v>5.091184195349766</v>
+        <v>5.177997034945676</v>
       </c>
       <c r="E11">
-        <v>7.755059065373611</v>
+        <v>7.750288555861949</v>
       </c>
       <c r="F11">
-        <v>22.07071547212403</v>
+        <v>21.2110614933684</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.995495429550635</v>
+        <v>2.93461655612374</v>
       </c>
       <c r="I11">
-        <v>2.7624329184602</v>
+        <v>2.661310860276243</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>14.29215262143384</v>
+        <v>13.61338961023561</v>
       </c>
       <c r="L11">
-        <v>6.470553461376767</v>
+        <v>11.03018793276457</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.140527296844308</v>
       </c>
       <c r="N11">
-        <v>7.209804777036312</v>
+        <v>6.472073565955005</v>
       </c>
       <c r="O11">
-        <v>15.46924489011365</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.394895197679718</v>
       </c>
       <c r="Q11">
-        <v>16.25415642131345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.54917972842085</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.56572535867075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.20886582088109</v>
+        <v>27.23174531196022</v>
       </c>
       <c r="C12">
-        <v>17.37274686107289</v>
+        <v>17.8149685231133</v>
       </c>
       <c r="D12">
-        <v>4.951801459288411</v>
+        <v>5.030166653579892</v>
       </c>
       <c r="E12">
-        <v>7.817877146786607</v>
+        <v>7.829345289681696</v>
       </c>
       <c r="F12">
-        <v>21.00464051637948</v>
+        <v>20.24402347589089</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.303879928532734</v>
+        <v>4.262015051146344</v>
       </c>
       <c r="I12">
-        <v>2.742702839177565</v>
+        <v>2.643322282521504</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.75572943171195</v>
+        <v>13.16895012434634</v>
       </c>
       <c r="L12">
-        <v>6.62903329812208</v>
+        <v>10.74113805573043</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.768621261587539</v>
       </c>
       <c r="N12">
-        <v>6.810458121963135</v>
+        <v>6.641022630869085</v>
       </c>
       <c r="O12">
-        <v>15.31116545989936</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.977431454578706</v>
       </c>
       <c r="Q12">
-        <v>15.54333846873801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.38059856917601</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.93314313908825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.21114497329643</v>
+        <v>27.2378604244783</v>
       </c>
       <c r="C13">
-        <v>17.69347822291831</v>
+        <v>18.0479997476226</v>
       </c>
       <c r="D13">
-        <v>4.798562566628175</v>
+        <v>4.869012999883089</v>
       </c>
       <c r="E13">
-        <v>7.963976245272438</v>
+        <v>7.986517811356708</v>
       </c>
       <c r="F13">
-        <v>19.96059637993896</v>
+        <v>19.30957501260485</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.694347779046474</v>
+        <v>5.661111566688342</v>
       </c>
       <c r="I13">
-        <v>2.772392762758371</v>
+        <v>2.669538354687164</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>13.36697431652895</v>
+        <v>12.86602058413707</v>
       </c>
       <c r="L13">
-        <v>6.809881739943324</v>
+        <v>10.55872504948702</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.476790678278592</v>
       </c>
       <c r="N13">
-        <v>6.404608658432216</v>
+        <v>6.826306792449342</v>
       </c>
       <c r="O13">
-        <v>14.97066712458443</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.554343204198762</v>
       </c>
       <c r="Q13">
-        <v>14.87358995522983</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.02708795294887</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.34866621735273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.02937842311083</v>
+        <v>27.05973084384424</v>
       </c>
       <c r="C14">
-        <v>17.8254219229805</v>
+        <v>18.10616403320249</v>
       </c>
       <c r="D14">
-        <v>4.685956824944701</v>
+        <v>4.751251907135658</v>
       </c>
       <c r="E14">
-        <v>8.114185718918655</v>
+        <v>8.141113091967188</v>
       </c>
       <c r="F14">
-        <v>19.23842344965077</v>
+        <v>18.66793992345353</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.690247330602928</v>
+        <v>6.660259076573638</v>
       </c>
       <c r="I14">
-        <v>2.818457092020781</v>
+        <v>2.711455316261381</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>13.17006720940886</v>
+        <v>12.72305252167065</v>
       </c>
       <c r="L14">
-        <v>6.950935787519493</v>
+        <v>10.47505467476628</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.321122466256192</v>
       </c>
       <c r="N14">
-        <v>6.122354291991992</v>
+        <v>6.967199926383621</v>
       </c>
       <c r="O14">
-        <v>14.64613294348202</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.260902128138839</v>
       </c>
       <c r="Q14">
-        <v>14.42313596122891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.69204772910061</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.96010519416998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89708881622537</v>
+        <v>26.92878787527909</v>
       </c>
       <c r="C15">
-        <v>17.81753676364001</v>
+        <v>18.07508514257524</v>
       </c>
       <c r="D15">
-        <v>4.656109999865034</v>
+        <v>4.720263622391526</v>
       </c>
       <c r="E15">
-        <v>8.152638972173547</v>
+        <v>8.180064935727712</v>
       </c>
       <c r="F15">
-        <v>19.06034972217222</v>
+        <v>18.51176040751425</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.923885347209358</v>
+        <v>6.894067774753204</v>
       </c>
       <c r="I15">
-        <v>2.84512111991269</v>
+        <v>2.73679273683469</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702216713</v>
       </c>
       <c r="K15">
-        <v>13.1459576625837</v>
+        <v>12.71111239803678</v>
       </c>
       <c r="L15">
-        <v>6.982720245304995</v>
+        <v>10.46749576409811</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.299802635157167</v>
       </c>
       <c r="N15">
-        <v>6.052351272408123</v>
+        <v>6.998171248378929</v>
       </c>
       <c r="O15">
-        <v>14.529155429768</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.188452522043016</v>
       </c>
       <c r="Q15">
-        <v>14.31684452392395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.57186483446276</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.87039661271725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04632126051423</v>
+        <v>26.08226930156349</v>
       </c>
       <c r="C16">
-        <v>17.32379764205924</v>
+        <v>17.53830396008071</v>
       </c>
       <c r="D16">
-        <v>4.62939290180499</v>
+        <v>4.694642603860196</v>
       </c>
       <c r="E16">
-        <v>8.088938413759314</v>
+        <v>8.114789393713147</v>
       </c>
       <c r="F16">
-        <v>19.13676886856311</v>
+        <v>18.60629375381898</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.739989711825385</v>
+        <v>6.704613036913678</v>
       </c>
       <c r="I16">
-        <v>2.960273555846641</v>
+        <v>2.841531353549503</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>13.37584863419512</v>
+        <v>12.93463449667466</v>
       </c>
       <c r="L16">
-        <v>6.912776113215092</v>
+        <v>10.59628494231227</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.464971393637377</v>
       </c>
       <c r="N16">
-        <v>6.022323132117463</v>
+        <v>6.923626235441466</v>
       </c>
       <c r="O16">
-        <v>14.17106579658752</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.160821641223686</v>
       </c>
       <c r="Q16">
-        <v>14.41851427512322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.20853127655737</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.98394605731099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.47947163947289</v>
+        <v>25.51671545137649</v>
       </c>
       <c r="C17">
-        <v>16.86406536234546</v>
+        <v>17.08590199318247</v>
       </c>
       <c r="D17">
-        <v>4.669139847467414</v>
+        <v>4.737834015893381</v>
       </c>
       <c r="E17">
-        <v>7.951629899871477</v>
+        <v>7.974851552595174</v>
       </c>
       <c r="F17">
-        <v>19.57750223115909</v>
+        <v>19.01917666652137</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.042915384507898</v>
+        <v>6.000267234423791</v>
       </c>
       <c r="I17">
-        <v>3.024888293639888</v>
+        <v>2.900467500088158</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>13.64859169859531</v>
+        <v>13.1773097508474</v>
       </c>
       <c r="L17">
-        <v>6.779942515781591</v>
+        <v>10.74941077472559</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.660231443275205</v>
       </c>
       <c r="N17">
-        <v>6.148838588736678</v>
+        <v>6.787881294749323</v>
       </c>
       <c r="O17">
-        <v>14.07235462503547</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.294602194825385</v>
       </c>
       <c r="Q17">
-        <v>14.73338509597067</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.11158917909996</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.27608456123677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10659168356633</v>
+        <v>25.14268875590108</v>
       </c>
       <c r="C18">
-        <v>16.36780970856325</v>
+        <v>16.64104142222124</v>
       </c>
       <c r="D18">
-        <v>4.770944621082085</v>
+        <v>4.845690984481359</v>
       </c>
       <c r="E18">
-        <v>7.786871490574293</v>
+        <v>7.803844314042991</v>
       </c>
       <c r="F18">
-        <v>20.40743550289389</v>
+        <v>19.7765850538237</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.863439467343898</v>
+        <v>4.80899160831465</v>
       </c>
       <c r="I18">
-        <v>3.041337513678561</v>
+        <v>2.912982669644842</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>14.02396561046829</v>
+        <v>13.49366750816394</v>
       </c>
       <c r="L18">
-        <v>6.601066989151715</v>
+        <v>10.96783399043056</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.916137404191518</v>
       </c>
       <c r="N18">
-        <v>6.433585897986036</v>
+        <v>6.605428157184054</v>
       </c>
       <c r="O18">
-        <v>14.18468969582531</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.592085489480834</v>
       </c>
       <c r="Q18">
-        <v>15.286680714742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.23225529489729</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.77267094538606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.92185394671213</v>
+        <v>24.95493472441145</v>
       </c>
       <c r="C19">
-        <v>15.93884678826492</v>
+        <v>16.29169094020373</v>
       </c>
       <c r="D19">
-        <v>4.920851680051653</v>
+        <v>5.00351324275502</v>
       </c>
       <c r="E19">
-        <v>7.693532973825371</v>
+        <v>7.697985599873824</v>
       </c>
       <c r="F19">
-        <v>21.45490209120236</v>
+        <v>20.72038512874234</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.512591655765999</v>
+        <v>3.438883443735448</v>
       </c>
       <c r="I19">
-        <v>3.034206637146086</v>
+        <v>2.907917640541777</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>14.46734734602766</v>
+        <v>13.8545112818466</v>
       </c>
       <c r="L19">
-        <v>6.439113673732995</v>
+        <v>11.22818653564515</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.207478368253987</v>
       </c>
       <c r="N19">
-        <v>6.846660371942883</v>
+        <v>6.436701592652054</v>
       </c>
       <c r="O19">
-        <v>14.45964530719228</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.021906802314085</v>
       </c>
       <c r="Q19">
-        <v>15.9655499999247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.51988854553854</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.37102336682906</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28258146371357</v>
+        <v>25.3074916500639</v>
       </c>
       <c r="C20">
-        <v>15.64514290339411</v>
+        <v>16.15203926393821</v>
       </c>
       <c r="D20">
-        <v>5.191111456730123</v>
+        <v>5.286913690609577</v>
       </c>
       <c r="E20">
-        <v>7.787088253060414</v>
+        <v>7.761811750356647</v>
       </c>
       <c r="F20">
-        <v>23.1471559702972</v>
+        <v>22.22221179196442</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.214097218822062</v>
+        <v>2.11502603755928</v>
       </c>
       <c r="I20">
-        <v>2.928127151508411</v>
+        <v>2.813199258130694</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>15.11859700138578</v>
+        <v>14.35300944320424</v>
       </c>
       <c r="L20">
-        <v>6.321280363186584</v>
+        <v>11.57884784627836</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.646011659282038</v>
       </c>
       <c r="N20">
-        <v>7.571450542429464</v>
+        <v>6.302787275081209</v>
       </c>
       <c r="O20">
-        <v>15.15623794749743</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.774848577380918</v>
       </c>
       <c r="Q20">
-        <v>17.03230701423022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.24033624279149</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.29006235799461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.79757412968165</v>
+        <v>26.81286944169787</v>
       </c>
       <c r="C21">
-        <v>16.39377766726789</v>
+        <v>17.0173885133764</v>
       </c>
       <c r="D21">
-        <v>5.325691226318312</v>
+        <v>5.425000257715005</v>
       </c>
       <c r="E21">
-        <v>7.862058940777178</v>
+        <v>7.826888030722209</v>
       </c>
       <c r="F21">
-        <v>23.61547010837225</v>
+        <v>22.59069553879073</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.93265414127892</v>
+        <v>1.849091932410175</v>
       </c>
       <c r="I21">
-        <v>2.715115276495619</v>
+        <v>2.621687139903514</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015645</v>
       </c>
       <c r="K21">
-        <v>14.98509615749355</v>
+        <v>14.15969861029486</v>
       </c>
       <c r="L21">
-        <v>6.359612581865232</v>
+        <v>11.38660853142626</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.631935004972595</v>
       </c>
       <c r="N21">
-        <v>7.852568324619613</v>
+        <v>6.34240156561146</v>
       </c>
       <c r="O21">
-        <v>15.94785701078009</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.06443603508656</v>
       </c>
       <c r="Q21">
-        <v>17.25155512107057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.0463268501179</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.43334730490536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.74971316344725</v>
+        <v>27.75898536351993</v>
       </c>
       <c r="C22">
-        <v>16.86303318842912</v>
+        <v>17.55407354017553</v>
       </c>
       <c r="D22">
-        <v>5.399246906826877</v>
+        <v>5.50036266803895</v>
       </c>
       <c r="E22">
-        <v>7.902687270044908</v>
+        <v>7.862515600788058</v>
       </c>
       <c r="F22">
-        <v>23.88655554310038</v>
+        <v>22.80277282059861</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.763997077784129</v>
+        <v>1.690470522915478</v>
       </c>
       <c r="I22">
-        <v>2.568950791481235</v>
+        <v>2.533299748915887</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130157</v>
       </c>
       <c r="K22">
-        <v>14.89025832282102</v>
+        <v>14.02863044916464</v>
       </c>
       <c r="L22">
-        <v>6.387514458847451</v>
+        <v>11.25490634637264</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.636213384112793</v>
       </c>
       <c r="N22">
-        <v>7.99593242697809</v>
+        <v>6.372080909512206</v>
       </c>
       <c r="O22">
-        <v>16.42187212827328</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.212346984053632</v>
       </c>
       <c r="Q22">
-        <v>17.37937999975277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.52824996205638</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>16.51585438452203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.24685983510263</v>
+        <v>27.2593131523742</v>
       </c>
       <c r="C23">
-        <v>16.58700761990587</v>
+        <v>17.24256806492002</v>
       </c>
       <c r="D23">
-        <v>5.357806694159871</v>
+        <v>5.458028183464385</v>
       </c>
       <c r="E23">
-        <v>7.882876121644082</v>
+        <v>7.845165566856636</v>
       </c>
       <c r="F23">
-        <v>23.77318606373838</v>
+        <v>22.71933586170087</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.85289639110402</v>
+        <v>1.774056654672707</v>
       </c>
       <c r="I23">
-        <v>2.634528972434222</v>
+        <v>2.543911901182712</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>14.96188760217815</v>
+        <v>14.11728670962377</v>
       </c>
       <c r="L23">
-        <v>6.372828162206242</v>
+        <v>11.33746721152926</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.648937575974518</v>
       </c>
       <c r="N23">
-        <v>7.914552025373754</v>
+        <v>6.356250922978974</v>
       </c>
       <c r="O23">
-        <v>16.16688464683444</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.12871550420253</v>
       </c>
       <c r="Q23">
-        <v>17.33511008873273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.26924184270036</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.49447461205247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25122410119953</v>
+        <v>25.27583117792332</v>
       </c>
       <c r="C24">
-        <v>15.54942661710877</v>
+        <v>16.06324055870316</v>
       </c>
       <c r="D24">
-        <v>5.203323570609792</v>
+        <v>5.30016409209568</v>
       </c>
       <c r="E24">
-        <v>7.803936251423068</v>
+        <v>7.77604376113851</v>
       </c>
       <c r="F24">
-        <v>23.31184075281999</v>
+        <v>22.37341876310188</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.197495427824662</v>
+        <v>2.098215016987554</v>
       </c>
       <c r="I24">
-        <v>2.909705446604054</v>
+        <v>2.791121854018984</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>15.21183776588996</v>
+        <v>14.43228546529391</v>
       </c>
       <c r="L24">
-        <v>6.315833490476813</v>
+        <v>11.63637153015146</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.709214361435574</v>
       </c>
       <c r="N24">
-        <v>7.608944991590613</v>
+        <v>6.295379450162843</v>
       </c>
       <c r="O24">
-        <v>15.17110288638514</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.814571885609088</v>
       </c>
       <c r="Q24">
-        <v>17.14655362975385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.25662494370366</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.39353118982868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90605479051658</v>
+        <v>22.94409588104471</v>
       </c>
       <c r="C25">
-        <v>14.35464415177276</v>
+        <v>14.70051039978853</v>
       </c>
       <c r="D25">
-        <v>5.034662848438478</v>
+        <v>5.128214111885589</v>
       </c>
       <c r="E25">
-        <v>7.716410283742994</v>
+        <v>7.699470675678397</v>
       </c>
       <c r="F25">
-        <v>22.85736187624035</v>
+        <v>22.04131683703629</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.584082656174509</v>
+        <v>2.462097677917502</v>
       </c>
       <c r="I25">
-        <v>3.221431682986584</v>
+        <v>3.072560034237632</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>15.5097724777807</v>
+        <v>14.79349974856591</v>
       </c>
       <c r="L25">
-        <v>6.251714162532722</v>
+        <v>11.97186605825035</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.856641655315963</v>
       </c>
       <c r="N25">
-        <v>7.268242903305898</v>
+        <v>6.22739046479111</v>
       </c>
       <c r="O25">
-        <v>14.0222505626553</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.46546882345589</v>
       </c>
       <c r="Q25">
-        <v>16.98307617903756</v>
+        <v>14.08664905004947</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.32120138021902</v>
       </c>
     </row>
   </sheetData>
